--- a/Outputs/1. Budget/Output Files/1000000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Output Files/1000000/Output_14_31.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2257797.30250195</v>
+        <v>2257822.315102603</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2734302.315056839</v>
+        <v>2734302.31505684</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.959321036447258</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852173</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.959321036447258</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -913,46 +913,46 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.05642108929943</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="X7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1226,58 +1226,58 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,40 +1311,40 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6.05642108929943</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>357.2396800452789</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>76.98982833525631</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.785706924231</v>
       </c>
       <c r="H11" t="n">
         <v>293.2147625766709</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.18877196692986</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.7933322500171</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.2882560027229</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2085102063774</v>
+        <v>261.2462167004183</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>48.13449148328714</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>377.074315539718</v>
       </c>
       <c r="G14" t="n">
         <v>410.785706924231</v>
@@ -1627,7 +1627,7 @@
         <v>293.2147625766709</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.33306771457669</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I15" t="n">
-        <v>16.31153875494347</v>
+        <v>16.31153875494346</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1110962078974</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.18877196692989</v>
+        <v>86.18877196692986</v>
       </c>
       <c r="S16" t="n">
-        <v>146.9848456016641</v>
+        <v>188.7057295757047</v>
       </c>
       <c r="T16" t="n">
         <v>219.2882560027229</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>210.5540186896368</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>293.2147625766709</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>106.0882349960188</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.3225481524488</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9842904605642</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>20.10216409567141</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.46788799288906</v>
+        <v>165.964794939711</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S19" t="n">
         <v>188.7057295757047</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>14.95769619346191</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>78.90780605333379</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>50.90964834632862</v>
+        <v>410.785706924231</v>
       </c>
       <c r="H20" t="n">
         <v>293.2147625766709</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.3225481524488</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9842904605642</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I21" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.1110962078974</v>
+        <v>138.1110962078965</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S22" t="n">
         <v>188.7057295757047</v>
@@ -2338,7 +2338,7 @@
         <v>293.2147625766709</v>
       </c>
       <c r="I23" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I24" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.33507323511576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.964794939711</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S25" t="n">
         <v>188.7057295757047</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>176.8637693780539</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>293.2147625766709</v>
       </c>
       <c r="I26" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>106.0882349960188</v>
       </c>
       <c r="T26" t="n">
-        <v>203.3225481524476</v>
+        <v>203.3225481524488</v>
       </c>
       <c r="U26" t="n">
         <v>250.9842904605639</v>
@@ -2654,7 +2654,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I27" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.467887992889</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.964794939711</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2125510389369</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.7057295757047</v>
       </c>
       <c r="T28" t="n">
-        <v>142.2845275926693</v>
+        <v>219.2882560027229</v>
       </c>
       <c r="U28" t="n">
         <v>286.2085102063774</v>
@@ -2812,7 +2812,7 @@
         <v>293.2147625766709</v>
       </c>
       <c r="I29" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>106.0882349960188</v>
+        <v>106.0882349960192</v>
       </c>
       <c r="T29" t="n">
         <v>203.3225481524488</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9842904605642</v>
+        <v>250.9842904605639</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I30" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>44.46788799288902</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.99593837699428</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>94.51758349800781</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.18877196692986</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>188.7057295757047</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.2882560027229</v>
       </c>
       <c r="U31" t="n">
         <v>286.2085102063774</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.7857069242306</v>
+        <v>410.7857069242309</v>
       </c>
       <c r="H32" t="n">
-        <v>293.2147625766709</v>
+        <v>293.2147625766708</v>
       </c>
       <c r="I32" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457668</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.0882349960182</v>
+        <v>106.0882349960188</v>
       </c>
       <c r="T32" t="n">
-        <v>203.3225481524488</v>
+        <v>203.3225481524487</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9842904605648</v>
+        <v>250.9842904605639</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I33" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.2125510389369</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>188.7057295757047</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.2882560027229</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2085102063774</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>27.41792610828779</v>
       </c>
       <c r="W34" t="n">
-        <v>261.6197350733455</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>390.7046006326819</v>
+        <v>410.785706924231</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.9842904605642</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>83.61764486856904</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I36" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44.46788799288992</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>95.80572024635603</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.785706924231</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>293.2147625766709</v>
       </c>
       <c r="I38" t="n">
-        <v>36.33306771457669</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>106.0882349960188</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.3225481524488</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>59.93234966461782</v>
+        <v>250.9842904605642</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>195.746516312859</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I39" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>102.8282517718831</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.964794939711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.2125510389369</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.2882560027229</v>
       </c>
       <c r="U40" t="n">
         <v>286.2085102063774</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>215.8752721969452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>239.1035504834391</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.785706924231</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>293.2147625766709</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>106.0882349960188</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.38717275246221</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I42" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.964794939711</v>
+        <v>65.92679646996578</v>
       </c>
       <c r="H43" t="n">
-        <v>37.55503871842055</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.2882560027229</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2085102063774</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>279.5078396785332</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.785706924231</v>
@@ -4036,13 +4036,13 @@
         <v>250.9842904605642</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>154.6919100670962</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>88.89400825922073</v>
       </c>
       <c r="I45" t="n">
-        <v>16.31153875494346</v>
+        <v>16.31153875494347</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.7057295757047</v>
       </c>
       <c r="T46" t="n">
         <v>219.2882560027229</v>
@@ -4194,13 +4194,13 @@
         <v>286.2085102063774</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.4167593497872</v>
       </c>
       <c r="W46" t="n">
-        <v>283.1100145308133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="C2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="D2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="E2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="F2" t="n">
-        <v>20.55868221764227</v>
+        <v>11.63406931041127</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6131814684388</v>
+        <v>4.688568561207798</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>4.688568561207798</v>
       </c>
       <c r="I2" t="n">
         <v>4.688568561207798</v>
@@ -4342,10 +4342,10 @@
         <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4354,28 +4354,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.50418296684575</v>
+        <v>18.57957005961474</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4415,7 +4415,7 @@
         <v>11.24818658432999</v>
       </c>
       <c r="L3" t="n">
-        <v>18.05547186862432</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M3" t="n">
         <v>20.69689768255142</v>
@@ -4424,10 +4424,10 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
@@ -4439,22 +4439,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4497,10 +4497,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>11.61484949925198</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>18.4221347835463</v>
       </c>
       <c r="O4" t="n">
         <v>25.22942006784063</v>
@@ -4512,28 +4512,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4570,10 +4570,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>1.921528796472203</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>8.728814080766526</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
         <v>15.53609936506085</v>
@@ -4594,25 +4594,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E6" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="G6" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4649,16 +4649,16 @@
         <v>6.856703976333826</v>
       </c>
       <c r="K6" t="n">
-        <v>13.66398926062815</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>20.47127454492247</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
-        <v>27.2785598292168</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
         <v>27.50418296684575</v>
@@ -4670,28 +4670,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>15.82942525487784</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>22.63671053917217</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4749,28 +4749,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X7" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F8" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.6131814684388</v>
+      </c>
+      <c r="H8" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="P8" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="P8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4886,49 +4886,49 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K9" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4968,10 +4968,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M10" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
         <v>13.8896123982571</v>
@@ -4983,31 +4983,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1198.523924645607</v>
+        <v>1614.414935023643</v>
       </c>
       <c r="C11" t="n">
-        <v>829.5614077051953</v>
+        <v>1614.414935023643</v>
       </c>
       <c r="D11" t="n">
-        <v>829.5614077051953</v>
+        <v>1614.414935023643</v>
       </c>
       <c r="E11" t="n">
-        <v>443.773155106951</v>
+        <v>1228.626682425398</v>
       </c>
       <c r="F11" t="n">
-        <v>366.0056517380053</v>
+        <v>817.6407776357908</v>
       </c>
       <c r="G11" t="n">
-        <v>366.0056517380053</v>
+        <v>402.7057201365676</v>
       </c>
       <c r="H11" t="n">
-        <v>69.82912388278213</v>
+        <v>106.5291922813445</v>
       </c>
       <c r="I11" t="n">
         <v>69.82912388278213</v>
       </c>
       <c r="J11" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649593</v>
       </c>
       <c r="K11" t="n">
-        <v>621.0856754578655</v>
+        <v>621.0856754578649</v>
       </c>
       <c r="L11" t="n">
-        <v>1093.370016561932</v>
+        <v>1093.37001656193</v>
       </c>
       <c r="M11" t="n">
-        <v>1650.546782934565</v>
+        <v>1650.546782934563</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.353060276316</v>
+        <v>2221.353060276314</v>
       </c>
       <c r="O11" t="n">
-        <v>2747.013980562302</v>
+        <v>2747.013980562301</v>
       </c>
       <c r="P11" t="n">
-        <v>3161.152413572227</v>
+        <v>3161.152413572226</v>
       </c>
       <c r="Q11" t="n">
         <v>3423.980382947778</v>
@@ -5086,7 +5086,7 @@
         <v>1975.26309668554</v>
       </c>
       <c r="Y11" t="n">
-        <v>1585.123764709729</v>
+        <v>1975.26309668554</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H12" t="n">
-        <v>86.30542565545228</v>
+        <v>86.3054256554523</v>
       </c>
       <c r="I12" t="n">
         <v>69.82912388278213</v>
       </c>
       <c r="J12" t="n">
-        <v>69.82912388278213</v>
+        <v>170.3134128391089</v>
       </c>
       <c r="K12" t="n">
-        <v>303.9100138625904</v>
+        <v>420.211892292462</v>
       </c>
       <c r="L12" t="n">
-        <v>686.2519000305988</v>
+        <v>802.5537784604704</v>
       </c>
       <c r="M12" t="n">
-        <v>1151.783715459221</v>
+        <v>1268.085593889092</v>
       </c>
       <c r="N12" t="n">
-        <v>1644.045417724835</v>
+        <v>1760.347296154707</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.148908969469</v>
+        <v>2188.450787399341</v>
       </c>
       <c r="P12" t="n">
-        <v>2396.406636720492</v>
+        <v>2512.708515150364</v>
       </c>
       <c r="Q12" t="n">
         <v>2563.245144115479</v>
@@ -5199,13 +5199,13 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J13" t="n">
-        <v>119.2222615886872</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K13" t="n">
-        <v>330.2271965254291</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L13" t="n">
-        <v>655.7673013909482</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M13" t="n">
         <v>1009.392820975377</v>
@@ -5214,31 +5214,31 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O13" t="n">
-        <v>1667.911847236951</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P13" t="n">
-        <v>1907.824838472375</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q13" t="n">
         <v>1990.493077782967</v>
       </c>
       <c r="R13" t="n">
-        <v>1903.433712159806</v>
+        <v>1990.493077782967</v>
       </c>
       <c r="S13" t="n">
-        <v>1719.804083624435</v>
+        <v>1990.493077782967</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.300794732796</v>
+        <v>1990.493077782967</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.201289473828</v>
+        <v>1726.608010408807</v>
       </c>
       <c r="V13" t="n">
-        <v>954.5168012679416</v>
+        <v>1471.92352220292</v>
       </c>
       <c r="W13" t="n">
-        <v>954.5168012679416</v>
+        <v>1182.506352165959</v>
       </c>
       <c r="X13" t="n">
         <v>954.5168012679416</v>
@@ -5257,22 +5257,22 @@
         <v>1198.523924645607</v>
       </c>
       <c r="C14" t="n">
-        <v>829.5614077051953</v>
+        <v>1198.523924645607</v>
       </c>
       <c r="D14" t="n">
-        <v>780.9407092372285</v>
+        <v>1198.523924645607</v>
       </c>
       <c r="E14" t="n">
-        <v>780.9407092372285</v>
+        <v>1198.523924645607</v>
       </c>
       <c r="F14" t="n">
-        <v>780.9407092372285</v>
+        <v>817.6407776357908</v>
       </c>
       <c r="G14" t="n">
-        <v>366.0056517380053</v>
+        <v>402.7057201365675</v>
       </c>
       <c r="H14" t="n">
-        <v>69.82912388278213</v>
+        <v>106.5291922813444</v>
       </c>
       <c r="I14" t="n">
         <v>69.82912388278213</v>
@@ -5281,19 +5281,19 @@
         <v>270.1372302649597</v>
       </c>
       <c r="K14" t="n">
-        <v>621.0856754578663</v>
+        <v>621.0856754578655</v>
       </c>
       <c r="L14" t="n">
-        <v>1093.370016561933</v>
+        <v>1093.370016561932</v>
       </c>
       <c r="M14" t="n">
-        <v>1650.546782934566</v>
+        <v>1650.546782934565</v>
       </c>
       <c r="N14" t="n">
         <v>2221.353060276316</v>
       </c>
       <c r="O14" t="n">
-        <v>2747.013980562303</v>
+        <v>2747.013980562302</v>
       </c>
       <c r="P14" t="n">
         <v>3161.152413572227</v>
@@ -5351,31 +5351,31 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H15" t="n">
-        <v>86.3054256554523</v>
+        <v>86.30542565545228</v>
       </c>
       <c r="I15" t="n">
         <v>69.82912388278213</v>
       </c>
       <c r="J15" t="n">
-        <v>69.82912388278213</v>
+        <v>170.3134128391089</v>
       </c>
       <c r="K15" t="n">
-        <v>319.7276033361353</v>
+        <v>420.2118922924622</v>
       </c>
       <c r="L15" t="n">
-        <v>686.251900030599</v>
+        <v>802.5537784604705</v>
       </c>
       <c r="M15" t="n">
-        <v>1151.783715459221</v>
+        <v>1268.085593889092</v>
       </c>
       <c r="N15" t="n">
-        <v>1644.045417724835</v>
+        <v>1760.347296154707</v>
       </c>
       <c r="O15" t="n">
-        <v>2072.148908969469</v>
+        <v>2188.450787399341</v>
       </c>
       <c r="P15" t="n">
-        <v>2396.406636720492</v>
+        <v>2512.708515150364</v>
       </c>
       <c r="Q15" t="n">
         <v>2563.245144115479</v>
@@ -5436,13 +5436,13 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J16" t="n">
-        <v>119.2222615886871</v>
+        <v>119.2222615886872</v>
       </c>
       <c r="K16" t="n">
-        <v>330.227196525429</v>
+        <v>330.2271965254291</v>
       </c>
       <c r="L16" t="n">
-        <v>655.767301390948</v>
+        <v>655.7673013909482</v>
       </c>
       <c r="M16" t="n">
         <v>1009.392820975377</v>
@@ -5451,37 +5451,37 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O16" t="n">
-        <v>1667.91184723695</v>
+        <v>1667.911847236951</v>
       </c>
       <c r="P16" t="n">
-        <v>1907.824838472374</v>
+        <v>1907.824838472375</v>
       </c>
       <c r="Q16" t="n">
         <v>1990.493077782967</v>
       </c>
       <c r="R16" t="n">
-        <v>1903.433712159805</v>
+        <v>1903.433712159806</v>
       </c>
       <c r="S16" t="n">
-        <v>1754.964171148023</v>
+        <v>1712.821864103538</v>
       </c>
       <c r="T16" t="n">
-        <v>1533.460882256384</v>
+        <v>1491.318575211899</v>
       </c>
       <c r="U16" t="n">
-        <v>1244.361376997417</v>
+        <v>1202.219069952932</v>
       </c>
       <c r="V16" t="n">
-        <v>989.6768887915298</v>
+        <v>947.5345817470451</v>
       </c>
       <c r="W16" t="n">
-        <v>700.2597187545692</v>
+        <v>658.1174117100845</v>
       </c>
       <c r="X16" t="n">
-        <v>472.2701678565519</v>
+        <v>430.1278608120672</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.4775887130218</v>
+        <v>209.3352816685371</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2148.66139219106</v>
+        <v>2341.643150570805</v>
       </c>
       <c r="C17" t="n">
-        <v>1935.980565231831</v>
+        <v>1972.680633630393</v>
       </c>
       <c r="D17" t="n">
-        <v>1577.71486662508</v>
+        <v>1614.414935023643</v>
       </c>
       <c r="E17" t="n">
-        <v>1191.926614026836</v>
+        <v>1228.626682425398</v>
       </c>
       <c r="F17" t="n">
-        <v>780.9407092372285</v>
+        <v>817.6407776357908</v>
       </c>
       <c r="G17" t="n">
-        <v>366.0056517380053</v>
+        <v>402.7057201365676</v>
       </c>
       <c r="H17" t="n">
-        <v>69.82912388278213</v>
+        <v>106.5291922813445</v>
       </c>
       <c r="I17" t="n">
         <v>69.82912388278213</v>
@@ -5542,25 +5542,25 @@
         <v>3491.456194139107</v>
       </c>
       <c r="S17" t="n">
-        <v>3384.296360809795</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="T17" t="n">
-        <v>3178.920049544695</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="U17" t="n">
-        <v>2925.400564230993</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="V17" t="n">
-        <v>2925.400564230993</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="W17" t="n">
-        <v>2925.400564230993</v>
+        <v>3138.687538868992</v>
       </c>
       <c r="X17" t="n">
-        <v>2925.400564230993</v>
+        <v>3118.382322610738</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.261232255182</v>
+        <v>2728.242990634927</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>1268.085593889092</v>
       </c>
       <c r="N18" t="n">
-        <v>1644.045417724835</v>
+        <v>1760.347296154707</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.148908969469</v>
+        <v>2188.450787399341</v>
       </c>
       <c r="P18" t="n">
-        <v>2396.406636720492</v>
+        <v>2512.708515150364</v>
       </c>
       <c r="Q18" t="n">
         <v>2563.245144115479</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.7461824614579</v>
+        <v>704.4362468152269</v>
       </c>
       <c r="C19" t="n">
-        <v>114.7461824614579</v>
+        <v>535.50006388732</v>
       </c>
       <c r="D19" t="n">
-        <v>114.7461824614579</v>
+        <v>385.3834244749843</v>
       </c>
       <c r="E19" t="n">
-        <v>114.7461824614579</v>
+        <v>237.4703308925912</v>
       </c>
       <c r="F19" t="n">
-        <v>114.7461824614579</v>
+        <v>237.4703308925912</v>
       </c>
       <c r="G19" t="n">
         <v>69.82912388278213</v>
@@ -5697,28 +5697,28 @@
         <v>1990.493077782967</v>
       </c>
       <c r="R19" t="n">
-        <v>1990.493077782967</v>
+        <v>1903.433712159805</v>
       </c>
       <c r="S19" t="n">
-        <v>1799.881229726699</v>
+        <v>1712.821864103538</v>
       </c>
       <c r="T19" t="n">
-        <v>1578.37794083506</v>
+        <v>1491.318575211898</v>
       </c>
       <c r="U19" t="n">
-        <v>1289.278435576093</v>
+        <v>1202.219069952931</v>
       </c>
       <c r="V19" t="n">
-        <v>1034.593947370206</v>
+        <v>947.5345817470442</v>
       </c>
       <c r="W19" t="n">
-        <v>745.1767773332451</v>
+        <v>932.4257977132443</v>
       </c>
       <c r="X19" t="n">
-        <v>517.1872264352278</v>
+        <v>704.4362468152269</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.3946472916977</v>
+        <v>704.4362468152269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1941.431911891533</v>
+        <v>1657.419721224407</v>
       </c>
       <c r="C20" t="n">
-        <v>1572.469394951121</v>
+        <v>1657.419721224407</v>
       </c>
       <c r="D20" t="n">
-        <v>1214.203696344371</v>
+        <v>1577.71486662508</v>
       </c>
       <c r="E20" t="n">
-        <v>828.4154437461266</v>
+        <v>1191.926614026836</v>
       </c>
       <c r="F20" t="n">
-        <v>417.429538956519</v>
+        <v>780.9407092372285</v>
       </c>
       <c r="G20" t="n">
-        <v>366.0056517380053</v>
+        <v>366.0056517380052</v>
       </c>
       <c r="H20" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="I20" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="J20" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649596</v>
       </c>
       <c r="K20" t="n">
-        <v>621.0856754578655</v>
+        <v>621.0856754578652</v>
       </c>
       <c r="L20" t="n">
-        <v>1093.370016561931</v>
+        <v>1093.37001656193</v>
       </c>
       <c r="M20" t="n">
-        <v>1650.546782934564</v>
+        <v>1650.546782934563</v>
       </c>
       <c r="N20" t="n">
-        <v>2221.353060276315</v>
+        <v>2221.353060276314</v>
       </c>
       <c r="O20" t="n">
-        <v>2747.013980562302</v>
+        <v>2747.013980562301</v>
       </c>
       <c r="P20" t="n">
-        <v>3161.152413572227</v>
+        <v>3161.152413572226</v>
       </c>
       <c r="Q20" t="n">
-        <v>3423.980382947778</v>
+        <v>3423.980382947777</v>
       </c>
       <c r="R20" t="n">
-        <v>3491.456194139107</v>
+        <v>3491.456194139106</v>
       </c>
       <c r="S20" t="n">
-        <v>3491.456194139107</v>
+        <v>3491.456194139106</v>
       </c>
       <c r="T20" t="n">
-        <v>3286.079882874007</v>
+        <v>3491.456194139106</v>
       </c>
       <c r="U20" t="n">
-        <v>3032.560397560305</v>
+        <v>3491.456194139106</v>
       </c>
       <c r="V20" t="n">
-        <v>2701.497510216735</v>
+        <v>3160.393306795535</v>
       </c>
       <c r="W20" t="n">
-        <v>2701.497510216735</v>
+        <v>2807.624651525421</v>
       </c>
       <c r="X20" t="n">
-        <v>2328.031751955655</v>
+        <v>2434.158893264341</v>
       </c>
       <c r="Y20" t="n">
-        <v>2328.031751955655</v>
+        <v>2044.019561288529</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>86.30542565545228</v>
       </c>
       <c r="I21" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="J21" t="n">
-        <v>170.3134128391089</v>
+        <v>170.3134128391088</v>
       </c>
       <c r="K21" t="n">
-        <v>420.2118922924622</v>
+        <v>420.211892292462</v>
       </c>
       <c r="L21" t="n">
-        <v>802.5537784604705</v>
+        <v>686.251900030599</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.085593889092</v>
+        <v>1151.783715459221</v>
       </c>
       <c r="N21" t="n">
-        <v>1760.347296154707</v>
+        <v>1644.045417724835</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.450787399341</v>
+        <v>2072.148908969469</v>
       </c>
       <c r="P21" t="n">
         <v>2396.406636720492</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="C22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="D22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="E22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="F22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="G22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="H22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="I22" t="n">
-        <v>69.82912388278213</v>
+        <v>69.82912388278211</v>
       </c>
       <c r="J22" t="n">
-        <v>119.2222615886872</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K22" t="n">
-        <v>330.2271965254291</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L22" t="n">
-        <v>655.7673013909482</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M22" t="n">
         <v>1009.392820975377</v>
@@ -5925,37 +5925,37 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O22" t="n">
-        <v>1667.911847236951</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P22" t="n">
-        <v>1907.824838472375</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q22" t="n">
         <v>1990.493077782967</v>
       </c>
       <c r="R22" t="n">
-        <v>1903.433712159806</v>
+        <v>1903.433712159805</v>
       </c>
       <c r="S22" t="n">
         <v>1712.821864103538</v>
       </c>
       <c r="T22" t="n">
-        <v>1491.318575211899</v>
+        <v>1491.318575211898</v>
       </c>
       <c r="U22" t="n">
-        <v>1202.219069952932</v>
+        <v>1202.219069952931</v>
       </c>
       <c r="V22" t="n">
-        <v>947.5345817470451</v>
+        <v>947.5345817470442</v>
       </c>
       <c r="W22" t="n">
-        <v>658.1174117100845</v>
+        <v>658.1174117100836</v>
       </c>
       <c r="X22" t="n">
-        <v>430.1278608120672</v>
+        <v>430.1278608120663</v>
       </c>
       <c r="Y22" t="n">
-        <v>209.3352816685371</v>
+        <v>209.3352816685362</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>843.1566768042499</v>
       </c>
       <c r="G23" t="n">
-        <v>428.2216193050268</v>
+        <v>428.2216193050269</v>
       </c>
       <c r="H23" t="n">
-        <v>132.0450914498038</v>
+        <v>132.0450914498039</v>
       </c>
       <c r="I23" t="n">
         <v>95.3450230512415</v>
       </c>
       <c r="J23" t="n">
-        <v>463.0587784537721</v>
+        <v>463.058778453772</v>
       </c>
       <c r="K23" t="n">
         <v>1134.911182092131</v>
       </c>
       <c r="L23" t="n">
-        <v>1775.333157467573</v>
+        <v>1775.333157467574</v>
       </c>
       <c r="M23" t="n">
-        <v>2332.509923840206</v>
+        <v>2332.509923840207</v>
       </c>
       <c r="N23" t="n">
         <v>2903.316201181957</v>
       </c>
       <c r="O23" t="n">
-        <v>3428.977121467943</v>
+        <v>3428.977121467944</v>
       </c>
       <c r="P23" t="n">
         <v>4161.696275567636</v>
@@ -6068,10 +6068,10 @@
         <v>95.3450230512415</v>
       </c>
       <c r="J24" t="n">
-        <v>195.8293120075683</v>
+        <v>195.8293120075682</v>
       </c>
       <c r="K24" t="n">
-        <v>445.7277914609215</v>
+        <v>445.7277914609214</v>
       </c>
       <c r="L24" t="n">
         <v>828.0696776289299</v>
@@ -6086,7 +6086,7 @@
         <v>2213.9666865678</v>
       </c>
       <c r="P24" t="n">
-        <v>2538.224414318823</v>
+        <v>2421.922535888952</v>
       </c>
       <c r="Q24" t="n">
         <v>2588.761043283939</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>262.9862300610506</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="C25" t="n">
-        <v>262.9862300610506</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="D25" t="n">
-        <v>262.9862300610506</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="E25" t="n">
-        <v>262.9862300610506</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="F25" t="n">
-        <v>262.9862300610506</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="G25" t="n">
         <v>95.3450230512415</v>
@@ -6150,10 +6150,10 @@
         <v>144.7381607571465</v>
       </c>
       <c r="K25" t="n">
-        <v>355.7430956938884</v>
+        <v>355.7430956938883</v>
       </c>
       <c r="L25" t="n">
-        <v>681.2832005594075</v>
+        <v>681.2832005594073</v>
       </c>
       <c r="M25" t="n">
         <v>1034.908720143836</v>
@@ -6162,37 +6162,37 @@
         <v>1385.5604316863</v>
       </c>
       <c r="O25" t="n">
-        <v>1693.42774640541</v>
+        <v>1693.427746405409</v>
       </c>
       <c r="P25" t="n">
-        <v>1933.340737640835</v>
+        <v>1933.340737640834</v>
       </c>
       <c r="Q25" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="R25" t="n">
-        <v>2016.008976951427</v>
+        <v>1928.949611328264</v>
       </c>
       <c r="S25" t="n">
-        <v>1825.397128895159</v>
+        <v>1738.337763271997</v>
       </c>
       <c r="T25" t="n">
-        <v>1603.89384000352</v>
+        <v>1516.834474380358</v>
       </c>
       <c r="U25" t="n">
-        <v>1314.794334744553</v>
+        <v>1227.73496912139</v>
       </c>
       <c r="V25" t="n">
-        <v>1060.109846538666</v>
+        <v>973.0504809155035</v>
       </c>
       <c r="W25" t="n">
-        <v>770.6926765017049</v>
+        <v>683.6333108785429</v>
       </c>
       <c r="X25" t="n">
-        <v>542.7031256036876</v>
+        <v>455.6437599805256</v>
       </c>
       <c r="Y25" t="n">
-        <v>321.9105464601574</v>
+        <v>276.9934878814812</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2367.159049739264</v>
       </c>
       <c r="C26" t="n">
-        <v>1998.196532798852</v>
+        <v>1998.196532798853</v>
       </c>
       <c r="D26" t="n">
         <v>1639.930834192102</v>
@@ -6214,31 +6214,31 @@
         <v>1254.142581593858</v>
       </c>
       <c r="F26" t="n">
-        <v>843.1566768042501</v>
+        <v>843.1566768042502</v>
       </c>
       <c r="G26" t="n">
-        <v>428.2216193050268</v>
+        <v>428.221619305027</v>
       </c>
       <c r="H26" t="n">
-        <v>132.0450914498038</v>
+        <v>132.0450914498039</v>
       </c>
       <c r="I26" t="n">
         <v>95.34502305124151</v>
       </c>
       <c r="J26" t="n">
-        <v>463.0587784537721</v>
+        <v>463.058778453772</v>
       </c>
       <c r="K26" t="n">
         <v>1134.911182092131</v>
       </c>
       <c r="L26" t="n">
-        <v>1607.195523196197</v>
+        <v>1775.333157467574</v>
       </c>
       <c r="M26" t="n">
-        <v>2164.37228956883</v>
+        <v>2332.509923840208</v>
       </c>
       <c r="N26" t="n">
-        <v>2735.178566910581</v>
+        <v>2903.316201181958</v>
       </c>
       <c r="O26" t="n">
         <v>3428.977121467944</v>
@@ -6256,13 +6256,13 @@
         <v>4660.091319232763</v>
       </c>
       <c r="T26" t="n">
-        <v>4454.715007967665</v>
+        <v>4454.715007967664</v>
       </c>
       <c r="U26" t="n">
-        <v>4201.195522653964</v>
+        <v>4201.195522653963</v>
       </c>
       <c r="V26" t="n">
-        <v>3870.132635310393</v>
+        <v>3870.132635310392</v>
       </c>
       <c r="W26" t="n">
         <v>3517.363980040278</v>
@@ -6311,19 +6311,19 @@
         <v>445.7277914609215</v>
       </c>
       <c r="L27" t="n">
-        <v>828.0696776289299</v>
+        <v>711.7677991990583</v>
       </c>
       <c r="M27" t="n">
-        <v>1293.601493057552</v>
+        <v>1177.29961462768</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.863195323166</v>
+        <v>1669.561316893295</v>
       </c>
       <c r="O27" t="n">
-        <v>2213.9666865678</v>
+        <v>2097.664808137929</v>
       </c>
       <c r="P27" t="n">
-        <v>2538.224414318823</v>
+        <v>2421.922535888952</v>
       </c>
       <c r="Q27" t="n">
         <v>2588.761043283939</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.6554735347243</v>
+        <v>140.2620816299173</v>
       </c>
       <c r="C28" t="n">
-        <v>408.6554735347243</v>
+        <v>95.34502305124151</v>
       </c>
       <c r="D28" t="n">
-        <v>408.6554735347243</v>
+        <v>95.34502305124151</v>
       </c>
       <c r="E28" t="n">
-        <v>408.6554735347243</v>
+        <v>95.34502305124151</v>
       </c>
       <c r="F28" t="n">
-        <v>408.6554735347243</v>
+        <v>95.34502305124151</v>
       </c>
       <c r="G28" t="n">
-        <v>241.0142665249151</v>
+        <v>95.34502305124151</v>
       </c>
       <c r="H28" t="n">
         <v>95.34502305124151</v>
@@ -6387,10 +6387,10 @@
         <v>144.7381607571465</v>
       </c>
       <c r="K28" t="n">
-        <v>355.7430956938884</v>
+        <v>355.7430956938883</v>
       </c>
       <c r="L28" t="n">
-        <v>681.2832005594075</v>
+        <v>681.2832005594073</v>
       </c>
       <c r="M28" t="n">
         <v>1034.908720143836</v>
@@ -6399,37 +6399,37 @@
         <v>1385.5604316863</v>
       </c>
       <c r="O28" t="n">
-        <v>1693.42774640541</v>
+        <v>1693.427746405409</v>
       </c>
       <c r="P28" t="n">
-        <v>1933.340737640835</v>
+        <v>1933.340737640834</v>
       </c>
       <c r="Q28" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="R28" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="S28" t="n">
-        <v>2016.008976951427</v>
+        <v>1825.397128895158</v>
       </c>
       <c r="T28" t="n">
-        <v>1872.287231908326</v>
+        <v>1603.893840003519</v>
       </c>
       <c r="U28" t="n">
-        <v>1583.187726649359</v>
+        <v>1314.794334744552</v>
       </c>
       <c r="V28" t="n">
-        <v>1328.503238443472</v>
+        <v>1060.109846538665</v>
       </c>
       <c r="W28" t="n">
-        <v>1039.086068406511</v>
+        <v>770.6926765017045</v>
       </c>
       <c r="X28" t="n">
-        <v>811.0965175084941</v>
+        <v>542.7031256036871</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.303938364964</v>
+        <v>321.910546460157</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2367.159049739264</v>
       </c>
       <c r="C29" t="n">
-        <v>1998.196532798853</v>
+        <v>1998.196532798852</v>
       </c>
       <c r="D29" t="n">
-        <v>1639.930834192103</v>
+        <v>1639.930834192102</v>
       </c>
       <c r="E29" t="n">
-        <v>1254.142581593859</v>
+        <v>1254.142581593858</v>
       </c>
       <c r="F29" t="n">
-        <v>843.1566768042508</v>
+        <v>843.1566768042501</v>
       </c>
       <c r="G29" t="n">
         <v>428.2216193050269</v>
       </c>
       <c r="H29" t="n">
-        <v>132.0450914498038</v>
+        <v>132.0450914498039</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34502305124151</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="J29" t="n">
-        <v>463.0587784537721</v>
+        <v>463.058778453772</v>
       </c>
       <c r="K29" t="n">
         <v>1134.911182092131</v>
@@ -6475,37 +6475,37 @@
         <v>2164.37228956883</v>
       </c>
       <c r="N29" t="n">
-        <v>2735.178566910581</v>
+        <v>2735.17856691058</v>
       </c>
       <c r="O29" t="n">
         <v>3428.977121467944</v>
       </c>
       <c r="P29" t="n">
-        <v>4161.696275567637</v>
+        <v>4161.696275567636</v>
       </c>
       <c r="Q29" t="n">
-        <v>4634.716085696495</v>
+        <v>4634.716085696494</v>
       </c>
       <c r="R29" t="n">
-        <v>4767.251152562076</v>
+        <v>4767.251152562075</v>
       </c>
       <c r="S29" t="n">
         <v>4660.091319232763</v>
       </c>
       <c r="T29" t="n">
-        <v>4454.715007967664</v>
+        <v>4454.715007967663</v>
       </c>
       <c r="U29" t="n">
-        <v>4201.195522653963</v>
+        <v>4201.195522653962</v>
       </c>
       <c r="V29" t="n">
-        <v>3870.132635310392</v>
+        <v>3870.132635310391</v>
       </c>
       <c r="W29" t="n">
-        <v>3517.363980040278</v>
+        <v>3517.363980040277</v>
       </c>
       <c r="X29" t="n">
-        <v>3143.898221779198</v>
+        <v>3143.898221779197</v>
       </c>
       <c r="Y29" t="n">
         <v>2753.758889803386</v>
@@ -6539,28 +6539,28 @@
         <v>111.8213248239117</v>
       </c>
       <c r="I30" t="n">
-        <v>95.34502305124151</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="J30" t="n">
-        <v>195.8293120075683</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="K30" t="n">
-        <v>445.7277914609215</v>
+        <v>345.2435025045947</v>
       </c>
       <c r="L30" t="n">
-        <v>828.0696776289299</v>
+        <v>727.5853886726031</v>
       </c>
       <c r="M30" t="n">
-        <v>1293.601493057552</v>
+        <v>1193.117204101225</v>
       </c>
       <c r="N30" t="n">
-        <v>1785.863195323166</v>
+        <v>1685.37890636684</v>
       </c>
       <c r="O30" t="n">
-        <v>2213.9666865678</v>
+        <v>2113.482397611473</v>
       </c>
       <c r="P30" t="n">
-        <v>2538.224414318823</v>
+        <v>2437.740125362496</v>
       </c>
       <c r="Q30" t="n">
         <v>2588.761043283939</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.1470488721657</v>
+        <v>140.2620816299173</v>
       </c>
       <c r="C31" t="n">
-        <v>677.1470488721657</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="D31" t="n">
-        <v>527.0304094598299</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="E31" t="n">
-        <v>379.1173158774368</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="F31" t="n">
-        <v>232.2273683795264</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="G31" t="n">
-        <v>232.2273683795264</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="H31" t="n">
-        <v>190.8173296148858</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="I31" t="n">
-        <v>95.34502305124151</v>
+        <v>95.3450230512415</v>
       </c>
       <c r="J31" t="n">
         <v>144.7381607571465</v>
       </c>
       <c r="K31" t="n">
-        <v>355.7430956938884</v>
+        <v>355.7430956938883</v>
       </c>
       <c r="L31" t="n">
-        <v>681.2832005594075</v>
+        <v>681.2832005594073</v>
       </c>
       <c r="M31" t="n">
         <v>1034.908720143836</v>
@@ -6636,37 +6636,37 @@
         <v>1385.5604316863</v>
       </c>
       <c r="O31" t="n">
-        <v>1693.42774640541</v>
+        <v>1693.427746405409</v>
       </c>
       <c r="P31" t="n">
-        <v>1933.340737640835</v>
+        <v>1933.340737640834</v>
       </c>
       <c r="Q31" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="R31" t="n">
-        <v>1928.949611328265</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="S31" t="n">
-        <v>1738.337763271998</v>
+        <v>1825.397128895158</v>
       </c>
       <c r="T31" t="n">
-        <v>1738.337763271998</v>
+        <v>1603.893840003519</v>
       </c>
       <c r="U31" t="n">
-        <v>1449.238258013031</v>
+        <v>1314.794334744552</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.553769807144</v>
+        <v>1060.109846538665</v>
       </c>
       <c r="W31" t="n">
-        <v>905.136599770183</v>
+        <v>770.6926765017045</v>
       </c>
       <c r="X31" t="n">
-        <v>677.1470488721657</v>
+        <v>542.7031256036871</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.1470488721657</v>
+        <v>321.910546460157</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1254.142581593857</v>
       </c>
       <c r="F32" t="n">
-        <v>843.1566768042496</v>
+        <v>843.1566768042499</v>
       </c>
       <c r="G32" t="n">
         <v>428.2216193050268</v>
@@ -6700,28 +6700,28 @@
         <v>95.3450230512415</v>
       </c>
       <c r="J32" t="n">
-        <v>295.6531294334191</v>
+        <v>463.058778453772</v>
       </c>
       <c r="K32" t="n">
-        <v>646.6015746263248</v>
+        <v>1134.911182092131</v>
       </c>
       <c r="L32" t="n">
-        <v>1491.173121659132</v>
+        <v>1607.195523196197</v>
       </c>
       <c r="M32" t="n">
-        <v>2493.368286189669</v>
+        <v>2164.37228956883</v>
       </c>
       <c r="N32" t="n">
-        <v>3497.148018699284</v>
+        <v>2735.17856691058</v>
       </c>
       <c r="O32" t="n">
-        <v>4022.80893898527</v>
+        <v>3428.977121467944</v>
       </c>
       <c r="P32" t="n">
-        <v>4436.947371995195</v>
+        <v>4161.696275567636</v>
       </c>
       <c r="Q32" t="n">
-        <v>4699.775341370747</v>
+        <v>4634.716085696494</v>
       </c>
       <c r="R32" t="n">
         <v>4767.251152562075</v>
@@ -6730,7 +6730,7 @@
         <v>4660.091319232763</v>
       </c>
       <c r="T32" t="n">
-        <v>4454.715007967664</v>
+        <v>4454.715007967663</v>
       </c>
       <c r="U32" t="n">
         <v>4201.195522653962</v>
@@ -6779,25 +6779,25 @@
         <v>95.3450230512415</v>
       </c>
       <c r="J33" t="n">
-        <v>95.3450230512415</v>
+        <v>195.8293120075682</v>
       </c>
       <c r="K33" t="n">
-        <v>345.2435025045947</v>
+        <v>445.7277914609214</v>
       </c>
       <c r="L33" t="n">
-        <v>727.5853886726031</v>
+        <v>828.0696776289299</v>
       </c>
       <c r="M33" t="n">
-        <v>1193.117204101225</v>
+        <v>1293.601493057552</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.37890636684</v>
+        <v>1669.561316893295</v>
       </c>
       <c r="O33" t="n">
-        <v>2113.482397611474</v>
+        <v>2097.664808137929</v>
       </c>
       <c r="P33" t="n">
-        <v>2437.740125362497</v>
+        <v>2421.922535888952</v>
       </c>
       <c r="Q33" t="n">
         <v>2588.761043283939</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.2008864717876</v>
+        <v>557.8635430352151</v>
       </c>
       <c r="C34" t="n">
-        <v>540.2647035438807</v>
+        <v>388.9273601073082</v>
       </c>
       <c r="D34" t="n">
-        <v>390.148064131545</v>
+        <v>388.9273601073082</v>
       </c>
       <c r="E34" t="n">
-        <v>242.2349705491519</v>
+        <v>241.0142665249151</v>
       </c>
       <c r="F34" t="n">
-        <v>95.3450230512415</v>
+        <v>241.0142665249151</v>
       </c>
       <c r="G34" t="n">
-        <v>95.3450230512415</v>
+        <v>241.0142665249151</v>
       </c>
       <c r="H34" t="n">
         <v>95.3450230512415</v>
@@ -6861,10 +6861,10 @@
         <v>144.7381607571465</v>
       </c>
       <c r="K34" t="n">
-        <v>355.7430956938884</v>
+        <v>355.7430956938883</v>
       </c>
       <c r="L34" t="n">
-        <v>681.2832005594075</v>
+        <v>681.2832005594073</v>
       </c>
       <c r="M34" t="n">
         <v>1034.908720143836</v>
@@ -6873,37 +6873,37 @@
         <v>1385.5604316863</v>
       </c>
       <c r="O34" t="n">
-        <v>1693.42774640541</v>
+        <v>1693.427746405409</v>
       </c>
       <c r="P34" t="n">
-        <v>1933.340737640835</v>
+        <v>1933.340737640834</v>
       </c>
       <c r="Q34" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="R34" t="n">
-        <v>2016.008976951427</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="S34" t="n">
-        <v>1825.397128895159</v>
+        <v>2016.008976951426</v>
       </c>
       <c r="T34" t="n">
-        <v>1603.89384000352</v>
+        <v>1794.505688059787</v>
       </c>
       <c r="U34" t="n">
-        <v>1603.89384000352</v>
+        <v>1505.406182800819</v>
       </c>
       <c r="V34" t="n">
-        <v>1603.89384000352</v>
+        <v>1477.711307943963</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.631481343575</v>
+        <v>1188.294137907002</v>
       </c>
       <c r="X34" t="n">
-        <v>1111.641930445557</v>
+        <v>960.304587008985</v>
       </c>
       <c r="Y34" t="n">
-        <v>890.8493513020273</v>
+        <v>739.5120078654548</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1988.48260856798</v>
+        <v>1650.500855710269</v>
       </c>
       <c r="C35" t="n">
-        <v>1619.520091627568</v>
+        <v>1281.538338769857</v>
       </c>
       <c r="D35" t="n">
-        <v>1261.254393020818</v>
+        <v>1281.538338769857</v>
       </c>
       <c r="E35" t="n">
-        <v>875.4661404225735</v>
+        <v>895.7500861716129</v>
       </c>
       <c r="F35" t="n">
-        <v>464.480235632966</v>
+        <v>484.7641813820053</v>
       </c>
       <c r="G35" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="H35" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="I35" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J35" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649596</v>
       </c>
       <c r="K35" t="n">
-        <v>621.0856754578654</v>
+        <v>621.0856754578652</v>
       </c>
       <c r="L35" t="n">
         <v>1093.370016561931</v>
       </c>
       <c r="M35" t="n">
-        <v>1650.546782934564</v>
+        <v>1650.546782934565</v>
       </c>
       <c r="N35" t="n">
         <v>2221.353060276315</v>
@@ -6955,34 +6955,34 @@
         <v>2747.013980562302</v>
       </c>
       <c r="P35" t="n">
-        <v>3161.152413572227</v>
+        <v>3161.152413572226</v>
       </c>
       <c r="Q35" t="n">
-        <v>3423.980382947779</v>
+        <v>3423.980382947778</v>
       </c>
       <c r="R35" t="n">
-        <v>3491.456194139108</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="S35" t="n">
-        <v>3491.456194139108</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="T35" t="n">
-        <v>3491.456194139108</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="U35" t="n">
-        <v>3491.456194139108</v>
+        <v>3237.936708825405</v>
       </c>
       <c r="V35" t="n">
-        <v>3491.456194139108</v>
+        <v>3153.474441281396</v>
       </c>
       <c r="W35" t="n">
-        <v>3138.687538868993</v>
+        <v>2800.705786011282</v>
       </c>
       <c r="X35" t="n">
-        <v>2765.221780607913</v>
+        <v>2427.240027750202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2375.082448632102</v>
+        <v>2037.10069577439</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H36" t="n">
-        <v>86.30542565545231</v>
+        <v>86.3054256554523</v>
       </c>
       <c r="I36" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J36" t="n">
         <v>170.3134128391089</v>
       </c>
       <c r="K36" t="n">
-        <v>420.2118922924622</v>
+        <v>420.211892292462</v>
       </c>
       <c r="L36" t="n">
-        <v>802.5537784604705</v>
+        <v>802.5537784604704</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.085593889092</v>
+        <v>1151.783715459221</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.347296154707</v>
+        <v>1644.045417724835</v>
       </c>
       <c r="O36" t="n">
         <v>2072.148908969469</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1615.7092988176</v>
+        <v>238.765306810689</v>
       </c>
       <c r="C37" t="n">
-        <v>1615.7092988176</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="D37" t="n">
-        <v>1615.7092988176</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="E37" t="n">
-        <v>1615.7092988176</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="F37" t="n">
-        <v>1570.792240238923</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="G37" t="n">
-        <v>1570.792240238923</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="H37" t="n">
-        <v>1570.792240238923</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="I37" t="n">
-        <v>1570.792240238923</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J37" t="n">
-        <v>1620.185377944828</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K37" t="n">
-        <v>1831.19031288157</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L37" t="n">
-        <v>2156.730417747089</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M37" t="n">
-        <v>2510.355937331517</v>
+        <v>1009.392820975377</v>
       </c>
       <c r="N37" t="n">
-        <v>2861.007648873981</v>
+        <v>1360.044532517841</v>
       </c>
       <c r="O37" t="n">
-        <v>3168.874963593091</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P37" t="n">
-        <v>3408.787954828515</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q37" t="n">
-        <v>3491.456194139108</v>
+        <v>1990.493077782967</v>
       </c>
       <c r="R37" t="n">
-        <v>3491.456194139108</v>
+        <v>1990.493077782967</v>
       </c>
       <c r="S37" t="n">
-        <v>3300.84434608284</v>
+        <v>1799.881229726699</v>
       </c>
       <c r="T37" t="n">
-        <v>3079.341057191201</v>
+        <v>1578.37794083506</v>
       </c>
       <c r="U37" t="n">
-        <v>2790.241551932234</v>
+        <v>1289.278435576093</v>
       </c>
       <c r="V37" t="n">
-        <v>2535.557063726347</v>
+        <v>1034.593947370206</v>
       </c>
       <c r="W37" t="n">
-        <v>2246.139893689387</v>
+        <v>745.1767773332451</v>
       </c>
       <c r="X37" t="n">
-        <v>2018.150342791369</v>
+        <v>517.1872264352278</v>
       </c>
       <c r="Y37" t="n">
-        <v>1797.357763647839</v>
+        <v>420.4137716409288</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2341.643150570805</v>
+        <v>1890.008024673019</v>
       </c>
       <c r="C38" t="n">
-        <v>1972.680633630393</v>
+        <v>1521.045507732608</v>
       </c>
       <c r="D38" t="n">
-        <v>1614.414935023643</v>
+        <v>1162.779809125857</v>
       </c>
       <c r="E38" t="n">
-        <v>1228.626682425398</v>
+        <v>776.9915565276128</v>
       </c>
       <c r="F38" t="n">
-        <v>817.6407776357908</v>
+        <v>366.0056517380053</v>
       </c>
       <c r="G38" t="n">
-        <v>402.7057201365676</v>
+        <v>366.0056517380053</v>
       </c>
       <c r="H38" t="n">
-        <v>106.5291922813445</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="I38" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J38" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649593</v>
       </c>
       <c r="K38" t="n">
-        <v>621.0856754578658</v>
+        <v>621.0856754578649</v>
       </c>
       <c r="L38" t="n">
-        <v>1093.370016561932</v>
+        <v>1093.37001656193</v>
       </c>
       <c r="M38" t="n">
-        <v>1650.546782934565</v>
+        <v>1650.546782934563</v>
       </c>
       <c r="N38" t="n">
-        <v>2221.353060276316</v>
+        <v>2221.353060276314</v>
       </c>
       <c r="O38" t="n">
-        <v>2747.013980562303</v>
+        <v>2747.013980562301</v>
       </c>
       <c r="P38" t="n">
-        <v>3161.152413572227</v>
+        <v>3161.152413572226</v>
       </c>
       <c r="Q38" t="n">
-        <v>3423.980382947779</v>
+        <v>3423.980382947778</v>
       </c>
       <c r="R38" t="n">
-        <v>3491.456194139108</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="S38" t="n">
-        <v>3384.296360809796</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="T38" t="n">
-        <v>3178.920049544696</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="U38" t="n">
-        <v>3118.382322610738</v>
+        <v>3237.936708825405</v>
       </c>
       <c r="V38" t="n">
-        <v>3118.382322610738</v>
+        <v>3237.936708825405</v>
       </c>
       <c r="W38" t="n">
-        <v>3118.382322610738</v>
+        <v>3040.212954974033</v>
       </c>
       <c r="X38" t="n">
-        <v>3118.382322610738</v>
+        <v>2666.747196712953</v>
       </c>
       <c r="Y38" t="n">
-        <v>2728.242990634927</v>
+        <v>2276.607864737141</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H39" t="n">
-        <v>86.30542565545231</v>
+        <v>86.3054256554523</v>
       </c>
       <c r="I39" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J39" t="n">
-        <v>170.3134128391089</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="K39" t="n">
-        <v>420.2118922924622</v>
+        <v>303.9100138625906</v>
       </c>
       <c r="L39" t="n">
-        <v>802.5537784604705</v>
+        <v>686.251900030599</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.085593889092</v>
+        <v>1151.783715459221</v>
       </c>
       <c r="N39" t="n">
         <v>1644.045417724835</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>536.7950398054179</v>
+        <v>383.1395743662648</v>
       </c>
       <c r="C40" t="n">
-        <v>367.858856877511</v>
+        <v>383.1395743662648</v>
       </c>
       <c r="D40" t="n">
-        <v>217.7422174651753</v>
+        <v>383.1395743662648</v>
       </c>
       <c r="E40" t="n">
-        <v>69.82912388278216</v>
+        <v>383.1395743662648</v>
       </c>
       <c r="F40" t="n">
-        <v>69.82912388278216</v>
+        <v>383.1395743662648</v>
       </c>
       <c r="G40" t="n">
-        <v>69.82912388278216</v>
+        <v>215.4983673564557</v>
       </c>
       <c r="H40" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="I40" t="n">
-        <v>69.82912388278216</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="J40" t="n">
-        <v>119.2222615886872</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K40" t="n">
-        <v>330.2271965254291</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L40" t="n">
-        <v>655.7673013909482</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M40" t="n">
         <v>1009.392820975377</v>
@@ -7347,10 +7347,10 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.911847236951</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P40" t="n">
-        <v>1907.824838472375</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q40" t="n">
         <v>1990.493077782967</v>
@@ -7362,22 +7362,22 @@
         <v>1990.493077782967</v>
       </c>
       <c r="T40" t="n">
-        <v>1990.493077782967</v>
+        <v>1768.989788891327</v>
       </c>
       <c r="U40" t="n">
-        <v>1701.393572524</v>
+        <v>1479.89028363236</v>
       </c>
       <c r="V40" t="n">
-        <v>1446.709084318113</v>
+        <v>1225.205795426473</v>
       </c>
       <c r="W40" t="n">
-        <v>1157.291914281153</v>
+        <v>935.7886253895124</v>
       </c>
       <c r="X40" t="n">
-        <v>939.2360837791878</v>
+        <v>707.799074491495</v>
       </c>
       <c r="Y40" t="n">
-        <v>718.4435046356576</v>
+        <v>487.0064953479649</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1881.322775238667</v>
+        <v>1946.677383565492</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.804037376608</v>
+        <v>1577.71486662508</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.538338769857</v>
+        <v>1577.71486662508</v>
       </c>
       <c r="E41" t="n">
-        <v>895.7500861716129</v>
+        <v>1191.926614026836</v>
       </c>
       <c r="F41" t="n">
-        <v>484.7641813820053</v>
+        <v>780.9407092372285</v>
       </c>
       <c r="G41" t="n">
-        <v>69.82912388278213</v>
+        <v>366.0056517380053</v>
       </c>
       <c r="H41" t="n">
         <v>69.82912388278213</v>
@@ -7411,10 +7411,10 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J41" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649596</v>
       </c>
       <c r="K41" t="n">
-        <v>621.0856754578655</v>
+        <v>621.0856754578652</v>
       </c>
       <c r="L41" t="n">
         <v>1093.370016561931</v>
@@ -7426,10 +7426,10 @@
         <v>2221.353060276315</v>
       </c>
       <c r="O41" t="n">
-        <v>2747.013980562302</v>
+        <v>2747.013980562301</v>
       </c>
       <c r="P41" t="n">
-        <v>3161.152413572227</v>
+        <v>3161.152413572226</v>
       </c>
       <c r="Q41" t="n">
         <v>3423.980382947778</v>
@@ -7438,25 +7438,25 @@
         <v>3491.456194139107</v>
       </c>
       <c r="S41" t="n">
-        <v>3384.296360809795</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="T41" t="n">
-        <v>3384.296360809795</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="U41" t="n">
-        <v>3384.296360809795</v>
+        <v>3491.456194139107</v>
       </c>
       <c r="V41" t="n">
-        <v>3384.296360809795</v>
+        <v>3449.65096913662</v>
       </c>
       <c r="W41" t="n">
-        <v>3031.52770553968</v>
+        <v>3096.882313866505</v>
       </c>
       <c r="X41" t="n">
-        <v>2658.061947278601</v>
+        <v>2723.416555605425</v>
       </c>
       <c r="Y41" t="n">
-        <v>2267.922615302789</v>
+        <v>2333.277223629614</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H42" t="n">
-        <v>86.30542565545228</v>
+        <v>86.3054256554523</v>
       </c>
       <c r="I42" t="n">
         <v>69.82912388278213</v>
@@ -7493,10 +7493,10 @@
         <v>170.3134128391089</v>
       </c>
       <c r="K42" t="n">
-        <v>420.2118922924622</v>
+        <v>420.211892292462</v>
       </c>
       <c r="L42" t="n">
-        <v>802.5537784604705</v>
+        <v>802.5537784604704</v>
       </c>
       <c r="M42" t="n">
         <v>1268.085593889092</v>
@@ -7508,7 +7508,7 @@
         <v>2188.450787399341</v>
       </c>
       <c r="P42" t="n">
-        <v>2512.708515150364</v>
+        <v>2396.406636720492</v>
       </c>
       <c r="Q42" t="n">
         <v>2563.245144115479</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>594.457535776693</v>
+        <v>305.3580305177252</v>
       </c>
       <c r="C43" t="n">
-        <v>425.5213528487861</v>
+        <v>136.4218475898183</v>
       </c>
       <c r="D43" t="n">
-        <v>275.4047134364504</v>
+        <v>136.4218475898183</v>
       </c>
       <c r="E43" t="n">
-        <v>275.4047134364504</v>
+        <v>136.4218475898183</v>
       </c>
       <c r="F43" t="n">
-        <v>275.4047134364504</v>
+        <v>136.4218475898183</v>
       </c>
       <c r="G43" t="n">
-        <v>107.7635064266413</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="H43" t="n">
         <v>69.82912388278213</v>
@@ -7569,13 +7569,13 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J43" t="n">
-        <v>119.2222615886872</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K43" t="n">
-        <v>330.2271965254291</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L43" t="n">
-        <v>655.7673013909482</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M43" t="n">
         <v>1009.392820975377</v>
@@ -7584,10 +7584,10 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.911847236951</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P43" t="n">
-        <v>1907.824838472375</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q43" t="n">
         <v>1990.493077782967</v>
@@ -7599,22 +7599,22 @@
         <v>1990.493077782967</v>
       </c>
       <c r="T43" t="n">
-        <v>1768.989788891328</v>
+        <v>1768.989788891327</v>
       </c>
       <c r="U43" t="n">
-        <v>1768.989788891328</v>
+        <v>1479.89028363236</v>
       </c>
       <c r="V43" t="n">
-        <v>1514.305300685441</v>
+        <v>1225.205795426473</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.88813064848</v>
+        <v>935.7886253895124</v>
       </c>
       <c r="X43" t="n">
-        <v>996.8985797504629</v>
+        <v>707.799074491495</v>
       </c>
       <c r="Y43" t="n">
-        <v>776.1060006069328</v>
+        <v>487.0064953479649</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1508.168924784391</v>
+        <v>2304.943082172243</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.206407843979</v>
+        <v>1935.980565231831</v>
       </c>
       <c r="D44" t="n">
-        <v>780.9407092372285</v>
+        <v>1577.71486662508</v>
       </c>
       <c r="E44" t="n">
-        <v>780.9407092372285</v>
+        <v>1191.926614026836</v>
       </c>
       <c r="F44" t="n">
         <v>780.9407092372285</v>
@@ -7648,10 +7648,10 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J44" t="n">
-        <v>270.1372302649597</v>
+        <v>270.1372302649593</v>
       </c>
       <c r="K44" t="n">
-        <v>621.0856754578655</v>
+        <v>621.0856754578649</v>
       </c>
       <c r="L44" t="n">
         <v>1093.370016561931</v>
@@ -7684,16 +7684,16 @@
         <v>3237.936708825405</v>
       </c>
       <c r="V44" t="n">
-        <v>2906.873821481834</v>
+        <v>3237.936708825405</v>
       </c>
       <c r="W44" t="n">
-        <v>2554.10516621172</v>
+        <v>3081.682254212176</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.63940795064</v>
+        <v>3081.682254212176</v>
       </c>
       <c r="Y44" t="n">
-        <v>1790.500075974828</v>
+        <v>2691.542922236365</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>176.0973531900187</v>
       </c>
       <c r="H45" t="n">
-        <v>86.30542565545228</v>
+        <v>86.3054256554523</v>
       </c>
       <c r="I45" t="n">
         <v>69.82912388278213</v>
@@ -7730,22 +7730,22 @@
         <v>170.3134128391089</v>
       </c>
       <c r="K45" t="n">
-        <v>303.9100138625904</v>
+        <v>420.211892292462</v>
       </c>
       <c r="L45" t="n">
-        <v>686.2519000305988</v>
+        <v>802.5537784604704</v>
       </c>
       <c r="M45" t="n">
-        <v>1151.783715459221</v>
+        <v>1268.085593889092</v>
       </c>
       <c r="N45" t="n">
-        <v>1644.045417724835</v>
+        <v>1760.347296154707</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.148908969469</v>
+        <v>2188.450787399341</v>
       </c>
       <c r="P45" t="n">
-        <v>2396.406636720492</v>
+        <v>2512.708515150364</v>
       </c>
       <c r="Q45" t="n">
         <v>2563.245144115479</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>536.7950398054179</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="C46" t="n">
-        <v>367.858856877511</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="D46" t="n">
-        <v>217.7422174651753</v>
+        <v>69.82912388278213</v>
       </c>
       <c r="E46" t="n">
         <v>69.82912388278213</v>
@@ -7806,13 +7806,13 @@
         <v>69.82912388278213</v>
       </c>
       <c r="J46" t="n">
-        <v>119.2222615886872</v>
+        <v>119.2222615886871</v>
       </c>
       <c r="K46" t="n">
-        <v>330.2271965254291</v>
+        <v>330.227196525429</v>
       </c>
       <c r="L46" t="n">
-        <v>655.7673013909482</v>
+        <v>655.767301390948</v>
       </c>
       <c r="M46" t="n">
         <v>1009.392820975377</v>
@@ -7821,37 +7821,37 @@
         <v>1360.044532517841</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.911847236951</v>
+        <v>1667.91184723695</v>
       </c>
       <c r="P46" t="n">
-        <v>1907.824838472375</v>
+        <v>1907.824838472374</v>
       </c>
       <c r="Q46" t="n">
         <v>1990.493077782967</v>
       </c>
       <c r="R46" t="n">
-        <v>1990.493077782967</v>
+        <v>1903.433712159805</v>
       </c>
       <c r="S46" t="n">
-        <v>1990.493077782967</v>
+        <v>1712.821864103538</v>
       </c>
       <c r="T46" t="n">
-        <v>1768.989788891328</v>
+        <v>1491.318575211898</v>
       </c>
       <c r="U46" t="n">
-        <v>1479.890283632361</v>
+        <v>1202.219069952931</v>
       </c>
       <c r="V46" t="n">
-        <v>1225.205795426474</v>
+        <v>989.6768887915298</v>
       </c>
       <c r="W46" t="n">
-        <v>939.2360837791878</v>
+        <v>700.2597187545692</v>
       </c>
       <c r="X46" t="n">
-        <v>939.2360837791878</v>
+        <v>472.2701678565519</v>
       </c>
       <c r="Y46" t="n">
-        <v>718.4435046356576</v>
+        <v>251.4775887130218</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>220.6994393100645</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>219.7812283081092</v>
       </c>
       <c r="O2" t="n">
         <v>221.386333214981</v>
       </c>
       <c r="P2" t="n">
-        <v>224.8051090463733</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>136.7242421653202</v>
       </c>
       <c r="L3" t="n">
-        <v>134.6825244847035</v>
+        <v>130.4745856257467</v>
       </c>
       <c r="M3" t="n">
-        <v>132.2598472404728</v>
+        <v>136.4677860994296</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>137.6948659351157</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5391265285224</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,13 +8145,13 @@
         <v>135.5908718514784</v>
       </c>
       <c r="M4" t="n">
-        <v>139.2965877603278</v>
+        <v>136.7210274283343</v>
       </c>
       <c r="N4" t="n">
         <v>128.2110283910967</v>
       </c>
       <c r="O4" t="n">
-        <v>136.8912521564099</v>
+        <v>139.4668124884034</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>203.566261954453</v>
+        <v>209.057009577846</v>
       </c>
       <c r="L5" t="n">
         <v>220.4249025169917</v>
       </c>
       <c r="M5" t="n">
-        <v>212.5009646122118</v>
+        <v>207.0102169888189</v>
       </c>
       <c r="N5" t="n">
         <v>204.2917325281876</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>132.5535436227116</v>
+        <v>125.9054000402213</v>
       </c>
       <c r="L6" t="n">
         <v>129.0745055979979</v>
@@ -8306,10 +8306,10 @@
         <v>129.9234925718064</v>
       </c>
       <c r="N6" t="n">
-        <v>111.9778619842204</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>131.5496644292654</v>
       </c>
       <c r="P6" t="n">
         <v>119.5899201578276</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>132.0937594060869</v>
+        <v>132.371579436055</v>
       </c>
       <c r="M7" t="n">
         <v>135.9022952863677</v>
       </c>
       <c r="N7" t="n">
-        <v>124.8974446055506</v>
+        <v>119.7029857597505</v>
       </c>
       <c r="O7" t="n">
         <v>136.4061815433745</v>
       </c>
       <c r="P7" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>96.74492111185943</v>
+        <v>103.6209668535709</v>
       </c>
       <c r="K8" t="n">
-        <v>100.3427553934781</v>
+        <v>93.74452968173479</v>
       </c>
       <c r="L8" t="n">
-        <v>79.02387160133335</v>
+        <v>85.62209731307665</v>
       </c>
       <c r="M8" t="n">
         <v>55.93995267482026</v>
       </c>
       <c r="N8" t="n">
-        <v>59.06075283035861</v>
+        <v>52.18470708864717</v>
       </c>
       <c r="O8" t="n">
-        <v>69.62254571745751</v>
+        <v>62.74649997574608</v>
       </c>
       <c r="P8" t="n">
-        <v>95.27822759655396</v>
+        <v>95.27822759655393</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.0456969704258</v>
+        <v>121.9217427121372</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,10 +8534,10 @@
         <v>83.50458420605955</v>
       </c>
       <c r="K9" t="n">
-        <v>58.62433576243288</v>
+        <v>52.02611005068958</v>
       </c>
       <c r="L9" t="n">
-        <v>23.16507977264234</v>
+        <v>23.16507977264236</v>
       </c>
       <c r="M9" t="n">
         <v>7.480163375249674</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>16.15399906534526</v>
+        <v>22.75222477708856</v>
       </c>
       <c r="P9" t="n">
-        <v>39.36940389405078</v>
+        <v>32.49335815233935</v>
       </c>
       <c r="Q9" t="n">
-        <v>72.14438013772386</v>
+        <v>79.02042587943531</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,13 +8616,13 @@
         <v>84.1258367566534</v>
       </c>
       <c r="L10" t="n">
-        <v>68.64525986006653</v>
+        <v>75.24348557180983</v>
       </c>
       <c r="M10" t="n">
-        <v>69.08560678298086</v>
+        <v>69.08560678298088</v>
       </c>
       <c r="N10" t="n">
-        <v>66.10423632485562</v>
+        <v>59.50601061311234</v>
       </c>
       <c r="O10" t="n">
         <v>82.35774950379157</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>169.835994213511</v>
+        <v>169.8359942135123</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>169.8359942135132</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>169.835994213512</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>169.835994213512</v>
+        <v>169.8359942135122</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>376.0476827563039</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>169.8359942135122</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.4941616182017</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>329.8862174064551</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.785706924231</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.33306771457669</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S13" t="n">
-        <v>6.912397325687635</v>
+        <v>188.7057295757047</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.2882560027229</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>24.96229350595905</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>306.5485501373958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>29.80173020199345</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.33306771457674</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>41.72088397403988</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>144.2125510389369</v>
       </c>
       <c r="I16" t="n">
-        <v>94.51758349800782</v>
+        <v>94.51758349800781</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.72088397404056</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>154.7188730813708</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.33306771457674</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>106.0882349960188</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.3225481524488</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.9842904605642</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>349.6289365827976</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.4969069468219</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.2125510389369</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.18877196692989</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>271.5653021431291</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>275.7752355673492</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>359.8760585779024</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>106.0882349960188</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.3225481524488</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.9842904605642</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.72088397403988</v>
+        <v>41.72088397404079</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.2125510389369</v>
       </c>
       <c r="I22" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.4969069468215</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.964794939711</v>
       </c>
       <c r="H25" t="n">
         <v>144.2125510389369</v>
       </c>
       <c r="I25" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.18877196692986</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>41.72088397404085</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>122.7789331057388</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.964794939711</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.2125510389369</v>
       </c>
       <c r="I28" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S28" t="n">
-        <v>188.7057295757047</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>77.00372841005361</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>122.7789331057388</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.964794939711</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2166126619426</v>
+        <v>144.2125510389369</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.2882560027229</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.964794939711</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2125510389369</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.7057295757047</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2085102063774</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.7197172155402</v>
       </c>
       <c r="W34" t="n">
-        <v>24.90326326324549</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>20.08110629154902</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>293.2147625766709</v>
       </c>
       <c r="I35" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>203.3225481524488</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9842904605642</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>244.1346136015659</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>100.9531600300413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.964794939711</v>
@@ -25332,7 +25332,7 @@
         <v>144.2125510389369</v>
       </c>
       <c r="I37" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>122.7789331057388</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.785706924231</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>106.0882349960188</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.3225481524488</v>
       </c>
       <c r="U38" t="n">
-        <v>191.0519407959464</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>153.494452404554</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>77.00372841005419</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.964794939711</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2125510389369</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S40" t="n">
         <v>188.7057295757047</v>
       </c>
       <c r="T40" t="n">
-        <v>219.2882560027229</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>9.834383192091906</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>126.1693412875685</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>293.2147625766709</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>106.0882349960188</v>
       </c>
       <c r="T41" t="n">
         <v>203.3225481524488</v>
@@ -25687,7 +25687,7 @@
         <v>250.9842904605642</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>286.3650857176727</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>100.0379984697452</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6575123205163</v>
+        <v>144.2125510389369</v>
       </c>
       <c r="I43" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.18877196692986</v>
+        <v>86.18877196692989</v>
       </c>
       <c r="S43" t="n">
         <v>188.7057295757047</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2085102063774</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.2260019849474</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.33306771457669</v>
+        <v>36.33306771457674</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>194.5490586503168</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.2125510389369</v>
       </c>
       <c r="I46" t="n">
-        <v>94.51758349800781</v>
+        <v>94.51758349800782</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.18877196692986</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>188.7057295757047</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.72088397404079</v>
       </c>
       <c r="W46" t="n">
-        <v>3.412983805777685</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>688324.4099502472</v>
+        <v>688324.409950247</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>688324.4099502473</v>
+        <v>688324.4099502472</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819572.8469599209</v>
+        <v>819572.8469599211</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819572.8469599209</v>
+        <v>819572.8469599211</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>688324.4099502472</v>
+        <v>688324.409950247</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>688324.4099502475</v>
+        <v>688324.409950247</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>688324.4099502473</v>
+        <v>688324.409950247</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>635793.2363482233</v>
       </c>
       <c r="C2" t="n">
-        <v>635796.2143019752</v>
+        <v>635796.2143019753</v>
       </c>
       <c r="D2" t="n">
-        <v>635848.8027171989</v>
+        <v>635848.8027171987</v>
       </c>
       <c r="E2" t="n">
-        <v>540342.0776318543</v>
+        <v>540342.0776318542</v>
       </c>
       <c r="F2" t="n">
+        <v>540342.0776318541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>540342.0776318542</v>
+      </c>
+      <c r="H2" t="n">
         <v>540342.077631854</v>
-      </c>
-      <c r="G2" t="n">
-        <v>540342.077631854</v>
-      </c>
-      <c r="H2" t="n">
-        <v>540342.0776318543</v>
       </c>
       <c r="I2" t="n">
         <v>616700.4956456108</v>
       </c>
       <c r="J2" t="n">
-        <v>616700.4956456106</v>
+        <v>616700.4956456107</v>
       </c>
       <c r="K2" t="n">
         <v>616700.4956456106</v>
       </c>
       <c r="L2" t="n">
-        <v>616700.4956456111</v>
+        <v>616700.4956456108</v>
       </c>
       <c r="M2" t="n">
-        <v>540342.0776318543</v>
+        <v>540342.0776318541</v>
       </c>
       <c r="N2" t="n">
-        <v>540342.0776318541</v>
+        <v>540342.0776318539</v>
       </c>
       <c r="O2" t="n">
         <v>540342.077631854</v>
       </c>
       <c r="P2" t="n">
-        <v>540342.0776318541</v>
+        <v>540342.0776318539</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>181602.6412710054</v>
       </c>
       <c r="E3" t="n">
-        <v>962779.861551743</v>
+        <v>962779.8615517428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>84815.16778469853</v>
+        <v>84815.16778469858</v>
       </c>
       <c r="J3" t="n">
         <v>1799.076112044437</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136324.3725433337</v>
+        <v>136324.3725433336</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>412725.6440656991</v>
+        <v>412718.9791705432</v>
       </c>
       <c r="C4" t="n">
-        <v>409941.7952866112</v>
+        <v>409935.3268512648</v>
       </c>
       <c r="D4" t="n">
-        <v>362258.4912274691</v>
+        <v>362255.6992222508</v>
       </c>
       <c r="E4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="F4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="G4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="H4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="I4" t="n">
-        <v>43558.18283481977</v>
+        <v>43554.18227929245</v>
       </c>
       <c r="J4" t="n">
-        <v>43558.1828348198</v>
+        <v>43554.18227929248</v>
       </c>
       <c r="K4" t="n">
-        <v>43558.1828348198</v>
+        <v>43554.18227929245</v>
       </c>
       <c r="L4" t="n">
-        <v>43558.18283481981</v>
+        <v>43554.1822792925</v>
       </c>
       <c r="M4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="N4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="O4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
       <c r="P4" t="n">
-        <v>8994.591115075043</v>
+        <v>8993.809811129819</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>39431.8184029668</v>
       </c>
       <c r="E5" t="n">
+        <v>77564.86178773946</v>
+      </c>
+      <c r="F5" t="n">
         <v>77564.86178773947</v>
-      </c>
-      <c r="F5" t="n">
-        <v>77564.86178773946</v>
       </c>
       <c r="G5" t="n">
         <v>77564.86178773946</v>
       </c>
       <c r="H5" t="n">
-        <v>77564.86178773947</v>
+        <v>77564.86178773944</v>
       </c>
       <c r="I5" t="n">
         <v>96956.94515576858</v>
@@ -26496,19 +26496,19 @@
         <v>96956.9451557686</v>
       </c>
       <c r="K5" t="n">
-        <v>96956.9451557686</v>
+        <v>96956.94515576858</v>
       </c>
       <c r="L5" t="n">
         <v>96956.94515576858</v>
       </c>
       <c r="M5" t="n">
-        <v>77564.86178773949</v>
+        <v>77564.86178773946</v>
       </c>
       <c r="N5" t="n">
-        <v>77564.86178773949</v>
+        <v>77564.86178773946</v>
       </c>
       <c r="O5" t="n">
-        <v>77564.86178773947</v>
+        <v>77564.86178773946</v>
       </c>
       <c r="P5" t="n">
         <v>77564.86178773946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164039.9211507915</v>
+        <v>164046.5860459474</v>
       </c>
       <c r="C6" t="n">
-        <v>180110.8941985898</v>
+        <v>180117.3626339363</v>
       </c>
       <c r="D6" t="n">
-        <v>52555.8518157576</v>
+        <v>52558.64382097579</v>
       </c>
       <c r="E6" t="n">
-        <v>-508997.2368227032</v>
+        <v>-508996.4555187578</v>
       </c>
       <c r="F6" t="n">
-        <v>453782.6247290397</v>
+        <v>453783.4060329848</v>
       </c>
       <c r="G6" t="n">
-        <v>453782.6247290395</v>
+        <v>453783.4060329851</v>
       </c>
       <c r="H6" t="n">
-        <v>453782.6247290398</v>
+        <v>453783.4060329847</v>
       </c>
       <c r="I6" t="n">
-        <v>391370.1998703239</v>
+        <v>391374.2004258513</v>
       </c>
       <c r="J6" t="n">
-        <v>474386.2915429779</v>
+        <v>474390.2920985052</v>
       </c>
       <c r="K6" t="n">
-        <v>476185.3676550222</v>
+        <v>476189.3682105496</v>
       </c>
       <c r="L6" t="n">
-        <v>476185.3676550227</v>
+        <v>476189.3682105498</v>
       </c>
       <c r="M6" t="n">
-        <v>317458.252185706</v>
+        <v>317459.0334896512</v>
       </c>
       <c r="N6" t="n">
-        <v>453782.6247290396</v>
+        <v>453783.4060329846</v>
       </c>
       <c r="O6" t="n">
-        <v>453782.6247290395</v>
+        <v>453783.4060329847</v>
       </c>
       <c r="P6" t="n">
-        <v>453782.6247290396</v>
+        <v>453783.4060329846</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>247.0713221041627</v>
       </c>
       <c r="E3" t="n">
+        <v>1123.611359487387</v>
+      </c>
+      <c r="F3" t="n">
         <v>1123.611359487388</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1123.611359487387</v>
       </c>
       <c r="G3" t="n">
         <v>1123.611359487387</v>
       </c>
       <c r="H3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="I3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="J3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="L3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="O3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
       <c r="P3" t="n">
-        <v>1123.611359487388</v>
+        <v>1123.611359487387</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>872.8640485347767</v>
       </c>
       <c r="H4" t="n">
-        <v>872.8640485347767</v>
+        <v>872.8640485347764</v>
       </c>
       <c r="I4" t="n">
         <v>1191.812788140519</v>
@@ -26822,10 +26822,10 @@
         <v>1191.812788140519</v>
       </c>
       <c r="M4" t="n">
-        <v>872.8640485347769</v>
+        <v>872.8640485347767</v>
       </c>
       <c r="N4" t="n">
-        <v>872.8640485347769</v>
+        <v>872.8640485347767</v>
       </c>
       <c r="O4" t="n">
         <v>872.8640485347767</v>
@@ -26968,7 +26968,7 @@
         <v>212.0500613850373</v>
       </c>
       <c r="E3" t="n">
-        <v>876.5400373832249</v>
+        <v>876.5400373832247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>318.948739605742</v>
+        <v>318.9487396057423</v>
       </c>
       <c r="J4" t="n">
         <v>6.876045741711778</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.0392631873234</v>
+        <v>547.0392631873232</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.6512757491669</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>204.9498411529237</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>137.1815570227587</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>204.9525376634656</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>131.2375955903962</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>104.8813280355746</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>80.8162941465782</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>193.9087859197754</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>11.39157842941674</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>169.3709999473969</v>
       </c>
       <c r="S4" t="n">
         <v>216.4173284491858</v>
       </c>
       <c r="T4" t="n">
-        <v>220.8922274593112</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>279.4407200033676</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>331.1569011525894</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>198.9917010283464</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>198.9357947846864</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>245.2779686995118</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>151.5886593661015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.3921426720279</v>
+        <v>131.2117673244399</v>
       </c>
       <c r="H6" t="n">
         <v>104.631881361733</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>79.92703148097597</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>88.60479815866813</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27800,7 +27800,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>8.05620490400057</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>167.577752922068</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27839,10 +27839,10 @@
         <v>279.6469525948796</v>
       </c>
       <c r="X7" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.3026647187852</v>
+        <v>323.2462436294858</v>
       </c>
       <c r="I8" t="n">
-        <v>172.1835593375587</v>
+        <v>165.3075135958473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>80.6007347637574</v>
+        <v>87.47678050546884</v>
       </c>
       <c r="S8" t="n">
-        <v>180.3299288891123</v>
+        <v>186.3863499784117</v>
       </c>
       <c r="T8" t="n">
         <v>218.7478909208712</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>129.9360349928223</v>
+        <v>136.8120807345338</v>
       </c>
       <c r="H9" t="n">
-        <v>100.2268414073004</v>
+        <v>107.1028871490119</v>
       </c>
       <c r="I9" t="n">
-        <v>64.22332410481989</v>
+        <v>71.09936984653133</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>67.16215834409098</v>
+        <v>60.28611260237955</v>
       </c>
       <c r="S9" t="n">
-        <v>155.7555514380183</v>
+        <v>161.8119725273177</v>
       </c>
       <c r="T9" t="n">
         <v>198.0226669494091</v>
@@ -27991,13 +27991,13 @@
         <v>225.9064191580356</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,10 +28031,10 @@
         <v>158.2659306546876</v>
       </c>
       <c r="I10" t="n">
-        <v>135.1758728983244</v>
+        <v>142.0519186400358</v>
       </c>
       <c r="J10" t="n">
-        <v>54.98356598145195</v>
+        <v>61.85961172316338</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.85427361396582</v>
+        <v>41.97822787225439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.2039414497195</v>
+        <v>150.3843167973074</v>
       </c>
       <c r="S10" t="n">
-        <v>216.2520779636332</v>
+        <v>209.3760322219218</v>
       </c>
       <c r="T10" t="n">
-        <v>219.1658794015052</v>
+        <v>219.9855040539172</v>
       </c>
       <c r="U10" t="n">
         <v>286.2947272592347</v>
@@ -31557,7 +31557,7 @@
         <v>4.347958643260188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07946012369179094</v>
+        <v>0.07946012369179092</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.5314364286768782</v>
       </c>
       <c r="H9" t="n">
-        <v>5.132557087484588</v>
+        <v>5.132557087484587</v>
       </c>
       <c r="I9" t="n">
         <v>18.29726300488375</v>
@@ -31624,7 +31624,7 @@
         <v>101.4810492619909</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.83739394829766</v>
+        <v>67.83739394829765</v>
       </c>
       <c r="R9" t="n">
         <v>32.99567580855215</v>
@@ -31688,13 +31688,13 @@
         <v>51.76346715559341</v>
       </c>
       <c r="L10" t="n">
-        <v>66.23941642117175</v>
+        <v>66.23941642117174</v>
       </c>
       <c r="M10" t="n">
-        <v>69.84017716462419</v>
+        <v>69.84017716462418</v>
       </c>
       <c r="N10" t="n">
-        <v>68.17953385212087</v>
+        <v>68.17953385212085</v>
       </c>
       <c r="O10" t="n">
         <v>62.97483468976266</v>
@@ -31706,7 +31706,7 @@
         <v>37.30776963772856</v>
       </c>
       <c r="R10" t="n">
-        <v>20.03302883815062</v>
+        <v>20.03302883815063</v>
       </c>
       <c r="S10" t="n">
         <v>7.764520073339011</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H11" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I11" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J11" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K11" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L11" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M11" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N11" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O11" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P11" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R11" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S11" t="n">
         <v>102.9318345902265</v>
@@ -31794,7 +31794,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H12" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I12" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>228.3369084407341</v>
       </c>
       <c r="K12" t="n">
-        <v>374.2867823883067</v>
+        <v>390.2641454928976</v>
       </c>
       <c r="L12" t="n">
         <v>524.7583052021049</v>
       </c>
       <c r="M12" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N12" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O12" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P12" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q12" t="n">
-        <v>308.5055189294428</v>
+        <v>191.0288740507847</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T12" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U12" t="n">
         <v>0.1590016074746304</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H13" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I13" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J13" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K13" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L13" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M13" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N13" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O13" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P13" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q13" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R13" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S13" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T13" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U13" t="n">
         <v>0.1105191501135136</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.517030590904066</v>
+        <v>4.517030590904067</v>
       </c>
       <c r="H14" t="n">
-        <v>46.26003953909628</v>
+        <v>46.26003953909629</v>
       </c>
       <c r="I14" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J14" t="n">
-        <v>383.3773251147443</v>
+        <v>383.3773251147444</v>
       </c>
       <c r="K14" t="n">
-        <v>574.5832300277135</v>
+        <v>574.5832300277136</v>
       </c>
       <c r="L14" t="n">
-        <v>712.821304974094</v>
+        <v>712.8213049740941</v>
       </c>
       <c r="M14" t="n">
-        <v>793.1510477450842</v>
+        <v>793.1510477450844</v>
       </c>
       <c r="N14" t="n">
-        <v>805.9850609114905</v>
+        <v>805.9850609114906</v>
       </c>
       <c r="O14" t="n">
-        <v>761.068837973188</v>
+        <v>761.0688379731882</v>
       </c>
       <c r="P14" t="n">
-        <v>649.5546452602438</v>
+        <v>649.554645260244</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.7884872234918</v>
+        <v>487.7884872234919</v>
       </c>
       <c r="R14" t="n">
-        <v>283.7429228558778</v>
+        <v>283.7429228558779</v>
       </c>
       <c r="S14" t="n">
         <v>102.9318345902265</v>
@@ -32031,7 +32031,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3613624472723252</v>
+        <v>0.3613624472723253</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.41682443361438</v>
+        <v>2.416824433614381</v>
       </c>
       <c r="H15" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I15" t="n">
-        <v>83.21084124505653</v>
+        <v>83.21084124505654</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>228.3369084407341</v>
       </c>
       <c r="K15" t="n">
         <v>390.2641454928976</v>
       </c>
       <c r="L15" t="n">
-        <v>508.7809420975143</v>
+        <v>524.7583052021049</v>
       </c>
       <c r="M15" t="n">
-        <v>612.368190920626</v>
+        <v>612.3681909206261</v>
       </c>
       <c r="N15" t="n">
-        <v>628.5757547758734</v>
+        <v>628.5757547758735</v>
       </c>
       <c r="O15" t="n">
-        <v>575.0240133784179</v>
+        <v>575.024013378418</v>
       </c>
       <c r="P15" t="n">
-        <v>461.5074657486969</v>
+        <v>461.507465748697</v>
       </c>
       <c r="Q15" t="n">
-        <v>308.5055189294427</v>
+        <v>191.0288740507847</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>44.89145384367059</v>
+        <v>44.8914538436706</v>
       </c>
       <c r="T15" t="n">
-        <v>9.741498484612345</v>
+        <v>9.741498484612347</v>
       </c>
       <c r="U15" t="n">
         <v>0.1590016074746304</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.026184418747747</v>
+        <v>2.026184418747748</v>
       </c>
       <c r="H16" t="n">
-        <v>18.01462146850271</v>
+        <v>18.01462146850272</v>
       </c>
       <c r="I16" t="n">
-        <v>60.93289142925046</v>
+        <v>60.93289142925047</v>
       </c>
       <c r="J16" t="n">
-        <v>143.2512384054657</v>
+        <v>143.2512384054658</v>
       </c>
       <c r="K16" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L16" t="n">
-        <v>301.2383634927333</v>
+        <v>301.2383634927334</v>
       </c>
       <c r="M16" t="n">
-        <v>317.6136175678855</v>
+        <v>317.6136175678856</v>
       </c>
       <c r="N16" t="n">
-        <v>310.0614756434623</v>
+        <v>310.0614756434624</v>
       </c>
       <c r="O16" t="n">
-        <v>286.3919576608181</v>
+        <v>286.3919576608182</v>
       </c>
       <c r="P16" t="n">
-        <v>245.0577955183638</v>
+        <v>245.0577955183639</v>
       </c>
       <c r="Q16" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R16" t="n">
-        <v>91.10461941023959</v>
+        <v>91.10461941023962</v>
       </c>
       <c r="S16" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T16" t="n">
-        <v>8.657333425558555</v>
+        <v>8.657333425558557</v>
       </c>
       <c r="U16" t="n">
         <v>0.1105191501135136</v>
@@ -32326,7 +32326,7 @@
         <v>612.368190920626</v>
       </c>
       <c r="N18" t="n">
-        <v>511.0991098972156</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O18" t="n">
         <v>575.0240133784179</v>
@@ -32335,7 +32335,7 @@
         <v>461.5074657486969</v>
       </c>
       <c r="Q18" t="n">
-        <v>308.5055189294427</v>
+        <v>191.0288740507847</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H20" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I20" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J20" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K20" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L20" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M20" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N20" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O20" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P20" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R20" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S20" t="n">
         <v>102.9318345902265</v>
@@ -32505,7 +32505,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H21" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I21" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J21" t="n">
         <v>228.3369084407341</v>
@@ -32557,31 +32557,31 @@
         <v>390.2641454928976</v>
       </c>
       <c r="L21" t="n">
-        <v>524.7583052021049</v>
+        <v>407.2816603234469</v>
       </c>
       <c r="M21" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N21" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O21" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P21" t="n">
-        <v>344.030820870039</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q21" t="n">
-        <v>308.5055189294428</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T21" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U21" t="n">
         <v>0.1590016074746304</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H22" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I22" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J22" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K22" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L22" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M22" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N22" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O22" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P22" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q22" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R22" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S22" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T22" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U22" t="n">
         <v>0.1105191501135136</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H23" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I23" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J23" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K23" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L23" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M23" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N23" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O23" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P23" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q23" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R23" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S23" t="n">
         <v>102.9318345902265</v>
@@ -32742,7 +32742,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H24" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I24" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J24" t="n">
         <v>228.3369084407341</v>
@@ -32797,28 +32797,28 @@
         <v>524.7583052021049</v>
       </c>
       <c r="M24" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N24" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O24" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P24" t="n">
-        <v>461.507465748697</v>
+        <v>344.030820870039</v>
       </c>
       <c r="Q24" t="n">
-        <v>191.0288740507847</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T24" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U24" t="n">
         <v>0.1590016074746304</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H25" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I25" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J25" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K25" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L25" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M25" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N25" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O25" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P25" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q25" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R25" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S25" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T25" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U25" t="n">
         <v>0.1105191501135136</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H26" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I26" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J26" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K26" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L26" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M26" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N26" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O26" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P26" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q26" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R26" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S26" t="n">
         <v>102.9318345902265</v>
@@ -32979,7 +32979,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H27" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I27" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J27" t="n">
         <v>228.3369084407341</v>
@@ -33031,31 +33031,31 @@
         <v>390.2641454928976</v>
       </c>
       <c r="L27" t="n">
-        <v>524.7583052021049</v>
+        <v>407.2816603234468</v>
       </c>
       <c r="M27" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N27" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O27" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P27" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q27" t="n">
-        <v>191.0288740507847</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T27" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U27" t="n">
         <v>0.1590016074746304</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H28" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I28" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J28" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K28" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L28" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M28" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N28" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O28" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P28" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q28" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R28" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S28" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T28" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U28" t="n">
         <v>0.1105191501135136</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H29" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I29" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J29" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K29" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L29" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M29" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N29" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O29" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P29" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q29" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R29" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S29" t="n">
         <v>102.9318345902265</v>
@@ -33216,7 +33216,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H30" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I30" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J30" t="n">
-        <v>228.3369084407341</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>390.2641454928976</v>
@@ -33271,28 +33271,28 @@
         <v>524.7583052021049</v>
       </c>
       <c r="M30" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N30" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O30" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P30" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q30" t="n">
-        <v>191.0288740507847</v>
+        <v>292.5281558248524</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T30" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U30" t="n">
         <v>0.1590016074746304</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H31" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I31" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J31" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K31" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L31" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M31" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N31" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O31" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P31" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q31" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R31" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S31" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T31" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U31" t="n">
         <v>0.1105191501135136</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H32" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I32" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J32" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K32" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L32" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M32" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N32" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O32" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P32" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q32" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R32" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S32" t="n">
         <v>102.9318345902265</v>
@@ -33453,7 +33453,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H33" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I33" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>228.3369084407341</v>
       </c>
       <c r="K33" t="n">
         <v>390.2641454928976</v>
@@ -33508,28 +33508,28 @@
         <v>524.7583052021049</v>
       </c>
       <c r="M33" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N33" t="n">
-        <v>628.5757547758735</v>
+        <v>511.0991098972154</v>
       </c>
       <c r="O33" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P33" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.5281558248519</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T33" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U33" t="n">
         <v>0.1590016074746304</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H34" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I34" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J34" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K34" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L34" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M34" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N34" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O34" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P34" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q34" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R34" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S34" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T34" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U34" t="n">
         <v>0.1105191501135136</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H35" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I35" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J35" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K35" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L35" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M35" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N35" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O35" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P35" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q35" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R35" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S35" t="n">
         <v>102.9318345902265</v>
@@ -33690,7 +33690,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H36" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I36" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J36" t="n">
         <v>228.3369084407341</v>
@@ -33745,28 +33745,28 @@
         <v>524.7583052021049</v>
       </c>
       <c r="M36" t="n">
-        <v>612.3681909206261</v>
+        <v>494.8915460419681</v>
       </c>
       <c r="N36" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O36" t="n">
-        <v>457.5473684997598</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P36" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q36" t="n">
-        <v>308.5055189294428</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T36" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U36" t="n">
         <v>0.1590016074746304</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H37" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I37" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J37" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K37" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L37" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M37" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N37" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O37" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P37" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q37" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R37" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S37" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T37" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U37" t="n">
         <v>0.1105191501135136</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H38" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I38" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J38" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K38" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L38" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M38" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N38" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O38" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P38" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q38" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R38" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S38" t="n">
         <v>102.9318345902265</v>
@@ -33927,7 +33927,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H39" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I39" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J39" t="n">
-        <v>228.3369084407341</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>390.2641454928976</v>
+        <v>374.286782388307</v>
       </c>
       <c r="L39" t="n">
         <v>524.7583052021049</v>
       </c>
       <c r="M39" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N39" t="n">
-        <v>511.0991098972152</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O39" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P39" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q39" t="n">
-        <v>308.5055189294428</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T39" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U39" t="n">
         <v>0.1590016074746304</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H40" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I40" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J40" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K40" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L40" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M40" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N40" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O40" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P40" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q40" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R40" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S40" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T40" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U40" t="n">
         <v>0.1105191501135136</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H41" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I41" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J41" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K41" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L41" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M41" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N41" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O41" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P41" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q41" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R41" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S41" t="n">
         <v>102.9318345902265</v>
@@ -34164,7 +34164,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H42" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I42" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J42" t="n">
         <v>228.3369084407341</v>
@@ -34219,28 +34219,28 @@
         <v>524.7583052021049</v>
       </c>
       <c r="M42" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N42" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O42" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P42" t="n">
-        <v>461.507465748697</v>
+        <v>344.030820870039</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.0288740507847</v>
+        <v>308.5055189294427</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T42" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U42" t="n">
         <v>0.1590016074746304</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H43" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I43" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J43" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K43" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L43" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M43" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N43" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O43" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P43" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q43" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R43" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S43" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T43" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U43" t="n">
         <v>0.1105191501135136</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.517030590904067</v>
+        <v>4.517030590904066</v>
       </c>
       <c r="H44" t="n">
-        <v>46.26003953909629</v>
+        <v>46.26003953909628</v>
       </c>
       <c r="I44" t="n">
         <v>174.1428218558292</v>
       </c>
       <c r="J44" t="n">
-        <v>383.3773251147444</v>
+        <v>383.3773251147443</v>
       </c>
       <c r="K44" t="n">
-        <v>574.5832300277136</v>
+        <v>574.5832300277135</v>
       </c>
       <c r="L44" t="n">
-        <v>712.8213049740941</v>
+        <v>712.821304974094</v>
       </c>
       <c r="M44" t="n">
-        <v>793.1510477450844</v>
+        <v>793.1510477450842</v>
       </c>
       <c r="N44" t="n">
-        <v>805.9850609114906</v>
+        <v>805.9850609114905</v>
       </c>
       <c r="O44" t="n">
-        <v>761.0688379731882</v>
+        <v>761.068837973188</v>
       </c>
       <c r="P44" t="n">
-        <v>649.554645260244</v>
+        <v>649.5546452602438</v>
       </c>
       <c r="Q44" t="n">
-        <v>487.7884872234919</v>
+        <v>487.7884872234918</v>
       </c>
       <c r="R44" t="n">
-        <v>283.7429228558779</v>
+        <v>283.7429228558778</v>
       </c>
       <c r="S44" t="n">
         <v>102.9318345902265</v>
@@ -34401,7 +34401,7 @@
         <v>19.77330141168256</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3613624472723253</v>
+        <v>0.3613624472723252</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.416824433614381</v>
+        <v>2.41682443361438</v>
       </c>
       <c r="H45" t="n">
         <v>23.34143597727573</v>
       </c>
       <c r="I45" t="n">
-        <v>83.21084124505654</v>
+        <v>83.21084124505653</v>
       </c>
       <c r="J45" t="n">
         <v>228.3369084407341</v>
       </c>
       <c r="K45" t="n">
-        <v>272.7875006142393</v>
+        <v>390.2641454928976</v>
       </c>
       <c r="L45" t="n">
         <v>524.7583052021049</v>
       </c>
       <c r="M45" t="n">
-        <v>612.3681909206261</v>
+        <v>612.368190920626</v>
       </c>
       <c r="N45" t="n">
-        <v>628.5757547758735</v>
+        <v>628.5757547758734</v>
       </c>
       <c r="O45" t="n">
-        <v>575.024013378418</v>
+        <v>575.0240133784179</v>
       </c>
       <c r="P45" t="n">
-        <v>461.507465748697</v>
+        <v>461.5074657486969</v>
       </c>
       <c r="Q45" t="n">
-        <v>308.5055189294428</v>
+        <v>191.0288740507847</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>44.8914538436706</v>
+        <v>44.89145384367059</v>
       </c>
       <c r="T45" t="n">
-        <v>9.741498484612347</v>
+        <v>9.741498484612345</v>
       </c>
       <c r="U45" t="n">
         <v>0.1590016074746304</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.026184418747748</v>
+        <v>2.026184418747747</v>
       </c>
       <c r="H46" t="n">
-        <v>18.01462146850272</v>
+        <v>18.01462146850271</v>
       </c>
       <c r="I46" t="n">
-        <v>60.93289142925047</v>
+        <v>60.93289142925046</v>
       </c>
       <c r="J46" t="n">
-        <v>143.2512384054658</v>
+        <v>143.2512384054657</v>
       </c>
       <c r="K46" t="n">
         <v>235.4057897417837</v>
       </c>
       <c r="L46" t="n">
-        <v>301.2383634927334</v>
+        <v>301.2383634927333</v>
       </c>
       <c r="M46" t="n">
-        <v>317.6136175678856</v>
+        <v>317.6136175678855</v>
       </c>
       <c r="N46" t="n">
-        <v>310.0614756434624</v>
+        <v>310.0614756434623</v>
       </c>
       <c r="O46" t="n">
-        <v>286.3919576608182</v>
+        <v>286.3919576608181</v>
       </c>
       <c r="P46" t="n">
-        <v>245.0577955183639</v>
+        <v>245.0577955183638</v>
       </c>
       <c r="Q46" t="n">
         <v>169.6653152825955</v>
       </c>
       <c r="R46" t="n">
-        <v>91.10461941023962</v>
+        <v>91.10461941023959</v>
       </c>
       <c r="S46" t="n">
         <v>35.31086846126755</v>
       </c>
       <c r="T46" t="n">
-        <v>8.657333425558557</v>
+        <v>8.657333425558555</v>
       </c>
       <c r="U46" t="n">
         <v>0.1105191501135136</v>
@@ -34710,13 +34710,13 @@
         <v>6.598225711743296</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L3" t="n">
+        <v>2.668106882754654</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
-        <v>2.668106882754654</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>4.300485409717924</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>4.300485409717925</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>2.297740302025373</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.385298118318473</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>1.385298118318474</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>6.370323552522132</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876045741711437</v>
+        <v>0.2279021592211631</v>
       </c>
       <c r="L6" t="n">
         <v>6.876045741711437</v>
@@ -35026,10 +35026,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2279021592211622</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911398</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.9166388158319</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
@@ -35412,28 +35412,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K11" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L11" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M11" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N11" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O11" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R11" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174567</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>101.4992817740674</v>
       </c>
       <c r="K12" t="n">
-        <v>236.4453434139477</v>
+        <v>252.4227065185386</v>
       </c>
       <c r="L12" t="n">
         <v>386.2039254222307</v>
       </c>
       <c r="M12" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N12" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O12" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P12" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5237448434212</v>
+        <v>51.04709996476323</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K13" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L13" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M13" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N13" t="n">
         <v>354.1936480226909</v>
@@ -35588,7 +35588,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K14" t="n">
-        <v>354.493378982733</v>
+        <v>354.4933789827331</v>
       </c>
       <c r="L14" t="n">
-        <v>477.0548900041068</v>
+        <v>477.0548900041069</v>
       </c>
       <c r="M14" t="n">
-        <v>562.8048145178115</v>
+        <v>562.8048145178117</v>
       </c>
       <c r="N14" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O14" t="n">
-        <v>530.9706265515013</v>
+        <v>530.9706265515015</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3216495049742</v>
+        <v>418.3216495049745</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.4827973490424</v>
+        <v>265.4827973490425</v>
       </c>
       <c r="R14" t="n">
-        <v>68.15738504174567</v>
+        <v>68.15738504174573</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>101.4992817740674</v>
       </c>
       <c r="K15" t="n">
         <v>252.4227065185386</v>
       </c>
       <c r="L15" t="n">
-        <v>370.2265623176401</v>
+        <v>386.2039254222307</v>
       </c>
       <c r="M15" t="n">
-        <v>470.2341569986077</v>
+        <v>470.2341569986078</v>
       </c>
       <c r="N15" t="n">
-        <v>497.2340426925401</v>
+        <v>497.2340426925402</v>
       </c>
       <c r="O15" t="n">
-        <v>432.4277689339734</v>
+        <v>432.4277689339735</v>
       </c>
       <c r="P15" t="n">
-        <v>327.5330583343667</v>
+        <v>327.5330583343668</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.5237448434212</v>
+        <v>51.04709996476323</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.89205828879295</v>
+        <v>49.89205828879298</v>
       </c>
       <c r="K16" t="n">
-        <v>213.1362979159008</v>
+        <v>213.1362979159009</v>
       </c>
       <c r="L16" t="n">
-        <v>328.8283887530495</v>
+        <v>328.8283887530496</v>
       </c>
       <c r="M16" t="n">
-        <v>357.197494529726</v>
+        <v>357.1974945297262</v>
       </c>
       <c r="N16" t="n">
         <v>354.1936480226909</v>
@@ -35825,7 +35825,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.5032720309011</v>
+        <v>83.50327203090113</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>470.2341569986077</v>
       </c>
       <c r="N18" t="n">
-        <v>379.7573978138823</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O18" t="n">
         <v>432.4277689339734</v>
@@ -35983,7 +35983,7 @@
         <v>327.5330583343667</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.5237448434212</v>
+        <v>51.04709996476323</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K20" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L20" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M20" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N20" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O20" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R20" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174567</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>252.4227065185386</v>
       </c>
       <c r="L21" t="n">
-        <v>386.2039254222307</v>
+        <v>268.7272805435727</v>
       </c>
       <c r="M21" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N21" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O21" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P21" t="n">
-        <v>210.0564134557087</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q21" t="n">
         <v>168.5237448434212</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K22" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L22" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M22" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N22" t="n">
         <v>354.1936480226909</v>
@@ -36299,7 +36299,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>371.4280357601319</v>
+        <v>371.4280357601318</v>
       </c>
       <c r="K23" t="n">
-        <v>678.6387915538978</v>
+        <v>678.6387915538977</v>
       </c>
       <c r="L23" t="n">
-        <v>646.8908842176179</v>
+        <v>646.890884217619</v>
       </c>
       <c r="M23" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N23" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O23" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P23" t="n">
-        <v>740.1203576764572</v>
+        <v>740.1203576764569</v>
       </c>
       <c r="Q23" t="n">
-        <v>477.7977880089471</v>
+        <v>477.797788008947</v>
       </c>
       <c r="R23" t="n">
-        <v>133.8738049147282</v>
+        <v>133.8738049147281</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>386.2039254222307</v>
       </c>
       <c r="M24" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N24" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O24" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P24" t="n">
-        <v>327.5330583343668</v>
+        <v>210.0564134557087</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.04709996476323</v>
+        <v>168.5237448434212</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K25" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L25" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M25" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N25" t="n">
         <v>354.1936480226909</v>
@@ -36536,7 +36536,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>371.4280357601319</v>
+        <v>371.4280357601318</v>
       </c>
       <c r="K26" t="n">
-        <v>678.6387915538978</v>
+        <v>678.6387915538977</v>
       </c>
       <c r="L26" t="n">
-        <v>477.0548900041069</v>
+        <v>646.8908842176199</v>
       </c>
       <c r="M26" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N26" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O26" t="n">
-        <v>700.8066207650135</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P26" t="n">
-        <v>740.1203576764572</v>
+        <v>740.1203576764569</v>
       </c>
       <c r="Q26" t="n">
-        <v>477.7977880089471</v>
+        <v>477.797788008947</v>
       </c>
       <c r="R26" t="n">
-        <v>133.8738049147282</v>
+        <v>133.8738049147281</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>252.4227065185386</v>
       </c>
       <c r="L27" t="n">
-        <v>386.2039254222307</v>
+        <v>268.7272805435726</v>
       </c>
       <c r="M27" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N27" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O27" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P27" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.04709996476323</v>
+        <v>168.5237448434212</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K28" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L28" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M28" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N28" t="n">
         <v>354.1936480226909</v>
@@ -36773,7 +36773,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>371.4280357601319</v>
+        <v>371.4280357601318</v>
       </c>
       <c r="K29" t="n">
-        <v>678.6387915538978</v>
+        <v>678.6387915538977</v>
       </c>
       <c r="L29" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M29" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N29" t="n">
         <v>576.5719973148996</v>
@@ -36849,13 +36849,13 @@
         <v>700.8066207650135</v>
       </c>
       <c r="P29" t="n">
-        <v>740.1203576764572</v>
+        <v>740.1203576764569</v>
       </c>
       <c r="Q29" t="n">
-        <v>477.7977880089471</v>
+        <v>477.797788008947</v>
       </c>
       <c r="R29" t="n">
-        <v>133.8738049147282</v>
+        <v>133.8738049147281</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>101.4992817740674</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>252.4227065185386</v>
@@ -36919,19 +36919,19 @@
         <v>386.2039254222307</v>
       </c>
       <c r="M30" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N30" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O30" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P30" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.04709996476323</v>
+        <v>152.5463817388309</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K31" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L31" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M31" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N31" t="n">
         <v>354.1936480226909</v>
@@ -37010,7 +37010,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>202.3314205880581</v>
+        <v>371.4280357601318</v>
       </c>
       <c r="K32" t="n">
-        <v>354.4933789827331</v>
+        <v>678.6387915538977</v>
       </c>
       <c r="L32" t="n">
-        <v>853.1025727604108</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M32" t="n">
-        <v>1012.318348010644</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N32" t="n">
-        <v>1013.918921726884</v>
+        <v>576.5719973148996</v>
       </c>
       <c r="O32" t="n">
-        <v>530.9706265515015</v>
+        <v>700.8066207650135</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3216495049745</v>
+        <v>740.1203576764569</v>
       </c>
       <c r="Q32" t="n">
-        <v>265.4827973490425</v>
+        <v>477.797788008947</v>
       </c>
       <c r="R32" t="n">
-        <v>68.15738504174573</v>
+        <v>133.8738049147281</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.4992817740674</v>
       </c>
       <c r="K33" t="n">
         <v>252.4227065185386</v>
@@ -37156,19 +37156,19 @@
         <v>386.2039254222307</v>
       </c>
       <c r="M33" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N33" t="n">
-        <v>497.2340426925402</v>
+        <v>379.7573978138821</v>
       </c>
       <c r="O33" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P33" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.5463817388304</v>
+        <v>168.5237448434212</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K34" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L34" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M34" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N34" t="n">
         <v>354.1936480226909</v>
@@ -37247,7 +37247,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K35" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L35" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M35" t="n">
-        <v>562.8048145178117</v>
+        <v>562.804814517812</v>
       </c>
       <c r="N35" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O35" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q35" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R35" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174567</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>386.2039254222307</v>
       </c>
       <c r="M36" t="n">
-        <v>470.2341569986078</v>
+        <v>352.7575121199498</v>
       </c>
       <c r="N36" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O36" t="n">
-        <v>314.9511240553153</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P36" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q36" t="n">
         <v>168.5237448434212</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K37" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L37" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M37" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N37" t="n">
         <v>354.1936480226909</v>
@@ -37484,7 +37484,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K38" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L38" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M38" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N38" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O38" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q38" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R38" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174567</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4992817740674</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>252.4227065185386</v>
+        <v>236.445343413948</v>
       </c>
       <c r="L39" t="n">
         <v>386.2039254222307</v>
       </c>
       <c r="M39" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N39" t="n">
-        <v>379.7573978138818</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O39" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P39" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q39" t="n">
         <v>168.5237448434212</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K40" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L40" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M40" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N40" t="n">
         <v>354.1936480226909</v>
@@ -37721,7 +37721,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K41" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L41" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M41" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N41" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O41" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q41" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R41" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174629</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>386.2039254222307</v>
       </c>
       <c r="M42" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N42" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O42" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P42" t="n">
-        <v>327.5330583343668</v>
+        <v>210.0564134557087</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.04709996476323</v>
+        <v>168.5237448434212</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K43" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L43" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M43" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N43" t="n">
         <v>354.1936480226909</v>
@@ -37958,7 +37958,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>202.3314205880581</v>
       </c>
       <c r="K44" t="n">
-        <v>354.4933789827331</v>
+        <v>354.493378982733</v>
       </c>
       <c r="L44" t="n">
-        <v>477.0548900041069</v>
+        <v>477.0548900041068</v>
       </c>
       <c r="M44" t="n">
-        <v>562.8048145178117</v>
+        <v>562.8048145178115</v>
       </c>
       <c r="N44" t="n">
         <v>576.5719973148996</v>
       </c>
       <c r="O44" t="n">
-        <v>530.9706265515015</v>
+        <v>530.9706265515013</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3216495049745</v>
+        <v>418.3216495049742</v>
       </c>
       <c r="Q44" t="n">
-        <v>265.4827973490425</v>
+        <v>265.4827973490424</v>
       </c>
       <c r="R44" t="n">
-        <v>68.15738504174573</v>
+        <v>68.15738504174567</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>101.4992817740674</v>
       </c>
       <c r="K45" t="n">
-        <v>134.9460616398803</v>
+        <v>252.4227065185386</v>
       </c>
       <c r="L45" t="n">
         <v>386.2039254222307</v>
       </c>
       <c r="M45" t="n">
-        <v>470.2341569986078</v>
+        <v>470.2341569986077</v>
       </c>
       <c r="N45" t="n">
-        <v>497.2340426925402</v>
+        <v>497.2340426925401</v>
       </c>
       <c r="O45" t="n">
-        <v>432.4277689339735</v>
+        <v>432.4277689339734</v>
       </c>
       <c r="P45" t="n">
-        <v>327.5330583343668</v>
+        <v>327.5330583343667</v>
       </c>
       <c r="Q45" t="n">
-        <v>168.5237448434212</v>
+        <v>51.04709996476323</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.89205828879298</v>
+        <v>49.89205828879295</v>
       </c>
       <c r="K46" t="n">
-        <v>213.1362979159009</v>
+        <v>213.1362979159008</v>
       </c>
       <c r="L46" t="n">
-        <v>328.8283887530496</v>
+        <v>328.8283887530495</v>
       </c>
       <c r="M46" t="n">
-        <v>357.1974945297262</v>
+        <v>357.197494529726</v>
       </c>
       <c r="N46" t="n">
         <v>354.1936480226909</v>
@@ -38195,7 +38195,7 @@
         <v>242.3363547832573</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.50327203090113</v>
+        <v>83.5032720309011</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
